--- a/LuBan/cfgs/Datas/旅行柴柴文本表.xlsx
+++ b/LuBan/cfgs/Datas/旅行柴柴文本表.xlsx
@@ -1,40 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityProject\smallGame\backpacklike\Tables\cfgs\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288C1BAC-598A-44A0-A565-F825BAB9E45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="28155" yWindow="435" windowWidth="28830" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>58896</author>
     <author>appcpi</author>
   </authors>
   <commentList>
-    <comment ref="C55" authorId="0">
+    <comment ref="C55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B649" authorId="1">
+    <comment ref="B649" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -3118,24 +3111,12 @@
     <t>BOSS is Coming</t>
   </si>
   <si>
-    <t>是否观看视频，获得30银币</t>
-  </si>
-  <si>
-    <t>Watch ads to get 30 silver coins</t>
-  </si>
-  <si>
     <t>剩余次数</t>
   </si>
   <si>
     <t>Remaining attempts</t>
   </si>
   <si>
-    <t>每日首次分享获得5体力</t>
-  </si>
-  <si>
-    <t>Share for 5 sta everyday</t>
-  </si>
-  <si>
     <t>点击任意位置继续</t>
   </si>
   <si>
@@ -3167,12 +3148,6 @@
   </si>
   <si>
     <t>Switch skills</t>
-  </si>
-  <si>
-    <t>分享成功，获得5体力</t>
-  </si>
-  <si>
-    <t>Share successfully and gain 5 stamina</t>
   </si>
   <si>
     <t>&lt;sprite=11&gt;{0}</t>
@@ -3479,7 +3454,7 @@
         <sz val="12"/>
         <color rgb="FF2C2C36"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Wish {0} times</t>
     </r>
@@ -3802,7 +3777,7 @@
         <sz val="12"/>
         <color rgb="FF2C2C36"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Draw &lt;color=#FFF700&gt;&lt;size=60&gt;{0}&lt;/size&gt;&lt;/color&gt; times to obtain &lt;color=#FFF700&gt;</t>
     </r>
@@ -3820,7 +3795,7 @@
         <sz val="12"/>
         <color rgb="FF2C2C36"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;/color&gt;</t>
     </r>
@@ -3834,7 +3809,7 @@
         <sz val="12"/>
         <color rgb="FF2C2C36"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Draw &lt;color=#FF7C17&gt;&lt;size=60&gt;{0}&lt;/size&gt;&lt;/color&gt; times to obtain &lt;color=#FF7C17&gt;</t>
     </r>
@@ -3852,7 +3827,7 @@
         <sz val="12"/>
         <color rgb="FF2C2C36"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;/color&gt;</t>
     </r>
@@ -4222,19 +4197,84 @@
   </si>
   <si>
     <t>Event has ended</t>
+  </si>
+  <si>
+    <t>Share successfully and gain {0} stamina</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>分享成功，获得{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>体力</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>是否观看视频，获得{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}银币</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>每日首次分享获得{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>体力</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Watch ads to get {0} silver coins</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Share for {0} sta everyday</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4261,151 +4301,7 @@
       <sz val="12"/>
       <color rgb="FF2C2C36"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4424,8 +4320,29 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4444,194 +4361,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4654,255 +4385,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4933,62 +4422,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5238,19 +4686,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E649"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A631" workbookViewId="0">
-      <selection activeCell="C656" sqref="C656"/>
+    <sheetView tabSelected="1" topLeftCell="A468" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C486" sqref="C486"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="93.625" style="2" customWidth="1"/>
@@ -5259,7 +4707,7 @@
     <col min="6" max="6" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5274,7 +4722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -5291,7 +4739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -5306,7 +4754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -5321,7 +4769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="17.25" spans="1:5">
+    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>10010001</v>
@@ -5336,7 +4784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="17.25" spans="1:5">
+    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>10010002</v>
@@ -5351,7 +4799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="17.25" spans="1:5">
+    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>10010003</v>
@@ -5366,7 +4814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="17.25" spans="1:5">
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>10010004</v>
@@ -5381,7 +4829,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" ht="17.25" spans="1:5">
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>10010005</v>
@@ -5396,7 +4844,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" ht="17.25" spans="1:5">
+    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>10010006</v>
@@ -5411,7 +4859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" ht="17.25" spans="1:5">
+    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>10010007</v>
@@ -5426,7 +4874,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" ht="17.25" spans="1:5">
+    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>10010008</v>
@@ -5441,7 +4889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" ht="17.25" spans="1:5">
+    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>10010009</v>
@@ -5456,7 +4904,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" ht="17.25" spans="1:5">
+    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>10010010</v>
@@ -5471,7 +4919,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" ht="17.25" spans="1:5">
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
         <v>10010011</v>
@@ -5486,7 +4934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" ht="17.25" spans="1:5">
+    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>10010012</v>
@@ -5501,7 +4949,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" ht="17.25" spans="1:5">
+    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>10010013</v>
@@ -5516,7 +4964,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" ht="17.25" spans="1:5">
+    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>10010014</v>
@@ -5531,7 +4979,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" ht="17.25" spans="1:5">
+    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
         <v>10010015</v>
@@ -5546,7 +4994,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" ht="17.25" spans="1:5">
+    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>10010016</v>
@@ -5561,7 +5009,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" ht="17.25" spans="1:5">
+    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>10010017</v>
@@ -5576,7 +5024,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" ht="17.25" spans="1:5">
+    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>10010018</v>
@@ -5591,7 +5039,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" ht="17.25" spans="1:5">
+    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>10010019</v>
@@ -5606,7 +5054,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" ht="17.25" spans="1:5">
+    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
         <v>10010020</v>
@@ -5621,7 +5069,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" ht="17.25" spans="1:5">
+    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>10010021</v>
@@ -5636,7 +5084,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" ht="17.25" spans="1:5">
+    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="1">
         <v>10010022</v>
@@ -5651,7 +5099,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" ht="17.25" spans="1:5">
+    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
       <c r="B27" s="1">
         <v>10010023</v>
@@ -5666,7 +5114,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" ht="17.25" spans="1:5">
+    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
       <c r="B28" s="1">
         <v>10010024</v>
@@ -5681,7 +5129,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" ht="17.25" spans="1:5">
+    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
       <c r="B29" s="1">
         <v>10010025</v>
@@ -5696,7 +5144,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" ht="17.25" spans="1:5">
+    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
       <c r="B30" s="1">
         <v>10010026</v>
@@ -5711,7 +5159,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" ht="17.25" spans="1:5">
+    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A31" s="8"/>
       <c r="B31" s="1">
         <v>10010027</v>
@@ -5726,7 +5174,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" ht="17.25" spans="1:5">
+    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
       <c r="B32" s="1">
         <v>10010028</v>
@@ -5741,7 +5189,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" ht="17.25" spans="1:5">
+    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
       <c r="B33" s="1">
         <v>10010029</v>
@@ -5756,7 +5204,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" ht="17.25" spans="1:5">
+    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
       <c r="B34" s="1">
         <v>10010030</v>
@@ -5771,7 +5219,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" ht="17.25" spans="1:5">
+    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A35" s="8"/>
       <c r="B35" s="1">
         <v>10010031</v>
@@ -5786,7 +5234,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" ht="17.25" spans="1:5">
+    <row r="36" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A36" s="8"/>
       <c r="B36" s="1">
         <v>10010032</v>
@@ -5801,7 +5249,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" ht="17.25" spans="1:5">
+    <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A37" s="8"/>
       <c r="B37" s="1">
         <v>10010033</v>
@@ -5816,7 +5264,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" ht="17.25" spans="1:5">
+    <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>
       <c r="B38" s="1">
         <v>10010034</v>
@@ -5831,7 +5279,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" ht="17.25" spans="1:5">
+    <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A39" s="8"/>
       <c r="B39" s="1">
         <v>10010035</v>
@@ -5846,7 +5294,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" ht="34.5" spans="1:5">
+    <row r="40" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A40" s="8"/>
       <c r="B40" s="1">
         <v>10010036</v>
@@ -5861,7 +5309,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" ht="17.25" spans="1:5">
+    <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A41" s="8"/>
       <c r="B41" s="1">
         <v>10010037</v>
@@ -5876,7 +5324,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" ht="17.25" spans="1:5">
+    <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A42" s="8"/>
       <c r="B42" s="1">
         <v>10010038</v>
@@ -5891,7 +5339,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" ht="17.25" spans="1:5">
+    <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1">
         <v>10020001</v>
@@ -5906,7 +5354,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" ht="17.25" spans="1:5">
+    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1">
         <v>10020002</v>
@@ -5921,7 +5369,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" ht="17.25" spans="1:5">
+    <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1">
         <v>10020003</v>
@@ -5936,7 +5384,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" ht="17.25" spans="1:5">
+    <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1">
         <v>10020004</v>
@@ -5951,7 +5399,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" ht="17.25" spans="1:5">
+    <row r="47" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A47" s="8"/>
       <c r="B47" s="1">
         <v>10020005</v>
@@ -5966,7 +5414,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" ht="17.25" spans="1:5">
+    <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A48" s="8"/>
       <c r="B48" s="1">
         <v>10020006</v>
@@ -5981,7 +5429,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" ht="17.25" spans="1:5">
+    <row r="49" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A49" s="8"/>
       <c r="B49" s="1">
         <v>10020007</v>
@@ -5996,7 +5444,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" ht="17.25" spans="1:5">
+    <row r="50" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A50" s="8"/>
       <c r="B50" s="1">
         <v>10020008</v>
@@ -6011,7 +5459,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" ht="17.25" spans="1:5">
+    <row r="51" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
       <c r="B51" s="1">
         <v>10020009</v>
@@ -6026,7 +5474,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" ht="17.25" spans="1:5">
+    <row r="52" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
       <c r="B52" s="1">
         <v>10020010</v>
@@ -6041,7 +5489,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" ht="17.25" spans="1:5">
+    <row r="53" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="1">
         <v>10020011</v>
@@ -6056,7 +5504,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" ht="17.25" spans="1:5">
+    <row r="54" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="1">
         <v>10020012</v>
@@ -6071,7 +5519,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" ht="17.25" spans="1:5">
+    <row r="55" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="1">
         <v>10020013</v>
@@ -6086,7 +5534,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" ht="17.25" spans="1:5">
+    <row r="56" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="1">
         <v>10020014</v>
@@ -6101,7 +5549,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" ht="17.25" spans="1:5">
+    <row r="57" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="1">
         <v>10020015</v>
@@ -6116,7 +5564,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" ht="17.25" spans="1:5">
+    <row r="58" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="1">
         <v>10020016</v>
@@ -6131,7 +5579,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" ht="17.25" spans="1:5">
+    <row r="59" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="1">
         <v>10020017</v>
@@ -6146,7 +5594,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" ht="17.25" spans="1:5">
+    <row r="60" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="1">
         <v>10020018</v>
@@ -6161,7 +5609,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" ht="17.25" spans="1:5">
+    <row r="61" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="1">
         <v>10020019</v>
@@ -6176,7 +5624,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" ht="17.25" spans="1:5">
+    <row r="62" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="1">
         <v>10020020</v>
@@ -6191,7 +5639,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" ht="17.25" spans="1:5">
+    <row r="63" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="1">
         <v>10020021</v>
@@ -6206,7 +5654,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" ht="17.25" spans="1:5">
+    <row r="64" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="1">
         <v>10020022</v>
@@ -6221,7 +5669,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" ht="17.25" spans="1:5">
+    <row r="65" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="1">
         <v>10020023</v>
@@ -6236,7 +5684,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" ht="17.25" spans="1:5">
+    <row r="66" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="1">
         <v>10020024</v>
@@ -6251,7 +5699,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" ht="17.25" spans="1:5">
+    <row r="67" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="1">
         <v>10020025</v>
@@ -6266,7 +5714,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" ht="17.25" spans="1:5">
+    <row r="68" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="1">
         <v>10330001</v>
@@ -6281,7 +5729,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" ht="17.25" spans="1:5">
+    <row r="69" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="1">
         <v>10330002</v>
@@ -6296,7 +5744,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" ht="17.25" spans="1:5">
+    <row r="70" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="1">
         <v>10330003</v>
@@ -6311,7 +5759,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" ht="17.25" spans="1:5">
+    <row r="71" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="1">
         <v>10330004</v>
@@ -6326,7 +5774,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" ht="17.25" spans="1:5">
+    <row r="72" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="1">
         <v>10330005</v>
@@ -6341,7 +5789,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="73" ht="17.25" spans="1:5">
+    <row r="73" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
       <c r="B73" s="1">
         <v>10330006</v>
@@ -6356,7 +5804,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="74" ht="17.25" spans="1:5">
+    <row r="74" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="1">
         <v>10330007</v>
@@ -6371,7 +5819,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" ht="17.25" spans="1:5">
+    <row r="75" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="1">
         <v>10330008</v>
@@ -6386,7 +5834,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" ht="17.25" spans="1:5">
+    <row r="76" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="1">
         <v>10330009</v>
@@ -6401,7 +5849,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" ht="17.25" spans="1:5">
+    <row r="77" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
       <c r="B77" s="1">
         <v>10330010</v>
@@ -6416,7 +5864,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" ht="17.25" spans="1:5">
+    <row r="78" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A78" s="8"/>
       <c r="B78" s="1">
         <v>10330011</v>
@@ -6431,7 +5879,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="79" ht="17.25" spans="1:5">
+    <row r="79" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A79" s="8"/>
       <c r="B79" s="1">
         <v>10330012</v>
@@ -6446,7 +5894,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="80" ht="17.25" spans="1:5">
+    <row r="80" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
       <c r="B80" s="1">
         <v>10330013</v>
@@ -6461,7 +5909,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="81" ht="17.25" spans="1:5">
+    <row r="81" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A81" s="8"/>
       <c r="B81" s="1">
         <v>10330014</v>
@@ -6476,7 +5924,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="82" ht="17.25" spans="1:5">
+    <row r="82" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A82" s="8"/>
       <c r="B82" s="1">
         <v>10330015</v>
@@ -6491,7 +5939,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" ht="17.25" spans="1:5">
+    <row r="83" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
       <c r="B83" s="1">
         <v>10330016</v>
@@ -6506,7 +5954,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" ht="17.25" spans="1:5">
+    <row r="84" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A84" s="8"/>
       <c r="B84" s="1">
         <v>10330017</v>
@@ -6521,7 +5969,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="85" ht="17.25" spans="1:5">
+    <row r="85" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A85" s="8"/>
       <c r="B85" s="1">
         <v>10330018</v>
@@ -6536,7 +5984,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="86" ht="17.25" spans="1:5">
+    <row r="86" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A86" s="8"/>
       <c r="B86" s="1">
         <v>10330019</v>
@@ -6551,7 +5999,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="87" ht="17.25" spans="1:5">
+    <row r="87" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A87" s="8"/>
       <c r="B87" s="1">
         <v>10330020</v>
@@ -6566,7 +6014,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="88" ht="17.25" spans="1:5">
+    <row r="88" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A88" s="8"/>
       <c r="B88" s="1">
         <v>10330021</v>
@@ -6581,7 +6029,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="89" ht="17.25" spans="1:5">
+    <row r="89" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A89" s="8"/>
       <c r="B89" s="1">
         <v>10330022</v>
@@ -6596,7 +6044,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="90" ht="17.25" spans="1:5">
+    <row r="90" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A90" s="8"/>
       <c r="B90" s="1">
         <v>10330023</v>
@@ -6611,7 +6059,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="91" ht="17.25" spans="1:5">
+    <row r="91" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A91" s="8"/>
       <c r="B91" s="1">
         <v>10330024</v>
@@ -6626,7 +6074,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="92" ht="17.25" spans="1:5">
+    <row r="92" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A92" s="8"/>
       <c r="B92" s="1">
         <v>10330025</v>
@@ -6641,7 +6089,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="93" ht="17.25" spans="1:5">
+    <row r="93" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A93" s="8"/>
       <c r="B93" s="1">
         <v>10330026</v>
@@ -6656,7 +6104,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="94" ht="17.25" spans="1:5">
+    <row r="94" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A94" s="8"/>
       <c r="B94" s="1">
         <v>10330027</v>
@@ -6671,7 +6119,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="95" ht="17.25" spans="1:5">
+    <row r="95" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A95" s="8"/>
       <c r="B95" s="1">
         <v>10330028</v>
@@ -6686,7 +6134,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="96" ht="17.25" spans="1:5">
+    <row r="96" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A96" s="8"/>
       <c r="B96" s="1">
         <v>10330029</v>
@@ -6701,7 +6149,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="97" ht="17.25" spans="1:5">
+    <row r="97" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A97" s="8"/>
       <c r="B97" s="1">
         <v>10330030</v>
@@ -6716,7 +6164,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="98" ht="17.25" spans="1:5">
+    <row r="98" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A98" s="8"/>
       <c r="B98" s="1">
         <v>10330031</v>
@@ -6731,7 +6179,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="99" ht="17.25" spans="1:5">
+    <row r="99" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A99" s="8"/>
       <c r="B99" s="1">
         <v>10330032</v>
@@ -6746,7 +6194,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="100" ht="17.25" spans="1:5">
+    <row r="100" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A100" s="8"/>
       <c r="B100" s="1">
         <v>10330033</v>
@@ -6761,7 +6209,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="101" ht="17.25" spans="1:5">
+    <row r="101" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A101" s="8"/>
       <c r="B101" s="1">
         <v>10330034</v>
@@ -6776,7 +6224,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="102" ht="17.25" spans="1:5">
+    <row r="102" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A102" s="8"/>
       <c r="B102" s="1">
         <v>10330035</v>
@@ -6791,7 +6239,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="103" ht="17.25" spans="1:5">
+    <row r="103" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A103" s="8"/>
       <c r="B103" s="1">
         <v>10330036</v>
@@ -6806,7 +6254,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="104" ht="17.25" spans="1:5">
+    <row r="104" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A104" s="8"/>
       <c r="B104" s="1">
         <v>10330037</v>
@@ -6821,7 +6269,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="105" ht="17.25" spans="1:5">
+    <row r="105" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A105" s="8"/>
       <c r="B105" s="1">
         <v>10330038</v>
@@ -6836,7 +6284,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="106" ht="17.25" spans="1:5">
+    <row r="106" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A106" s="8"/>
       <c r="B106" s="1">
         <v>10330039</v>
@@ -6851,7 +6299,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="107" ht="17.25" spans="1:5">
+    <row r="107" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A107" s="8"/>
       <c r="B107" s="1">
         <v>10330040</v>
@@ -6866,7 +6314,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="108" ht="17.25" spans="1:5">
+    <row r="108" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A108" s="8"/>
       <c r="B108" s="1">
         <v>10330041</v>
@@ -6881,7 +6329,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="109" ht="17.25" spans="1:5">
+    <row r="109" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A109" s="8"/>
       <c r="B109" s="1">
         <v>10330042</v>
@@ -6896,7 +6344,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="110" ht="17.25" spans="1:5">
+    <row r="110" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A110" s="8"/>
       <c r="B110" s="1">
         <v>10330043</v>
@@ -6911,7 +6359,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="111" ht="17.25" spans="1:5">
+    <row r="111" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A111" s="8"/>
       <c r="B111" s="1">
         <v>10330044</v>
@@ -6926,7 +6374,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="112" ht="17.25" spans="1:5">
+    <row r="112" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A112" s="8"/>
       <c r="B112" s="1">
         <v>10330045</v>
@@ -6941,7 +6389,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="113" ht="17.25" spans="1:5">
+    <row r="113" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A113" s="8"/>
       <c r="B113" s="1">
         <v>10330046</v>
@@ -6956,7 +6404,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="114" ht="17.25" spans="1:5">
+    <row r="114" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A114" s="8"/>
       <c r="B114" s="1">
         <v>10330047</v>
@@ -6971,7 +6419,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="115" ht="17.25" spans="1:5">
+    <row r="115" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A115" s="8"/>
       <c r="B115" s="1">
         <v>10330048</v>
@@ -6986,7 +6434,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="116" ht="17.25" spans="1:5">
+    <row r="116" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A116" s="8"/>
       <c r="B116" s="1">
         <v>10330049</v>
@@ -7001,7 +6449,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="117" ht="17.25" spans="1:5">
+    <row r="117" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A117" s="8"/>
       <c r="B117" s="1">
         <v>10330050</v>
@@ -7016,7 +6464,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="118" ht="17.25" spans="1:5">
+    <row r="118" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A118" s="8"/>
       <c r="B118" s="1">
         <v>10330051</v>
@@ -7031,7 +6479,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="119" ht="17.25" spans="1:5">
+    <row r="119" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A119" s="8"/>
       <c r="B119" s="1">
         <v>10330052</v>
@@ -7046,7 +6494,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="120" ht="17.25" spans="1:5">
+    <row r="120" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A120" s="8"/>
       <c r="B120" s="1">
         <v>10330053</v>
@@ -7061,7 +6509,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="121" ht="17.25" spans="1:5">
+    <row r="121" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A121" s="8"/>
       <c r="B121" s="1">
         <v>10330054</v>
@@ -7076,7 +6524,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" ht="17.25" spans="1:5">
+    <row r="122" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A122" s="8"/>
       <c r="B122" s="1">
         <v>10330055</v>
@@ -7091,7 +6539,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="123" ht="17.25" spans="1:5">
+    <row r="123" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A123" s="8"/>
       <c r="B123" s="1">
         <v>10330056</v>
@@ -7106,7 +6554,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="124" ht="17.25" spans="1:5">
+    <row r="124" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A124" s="8"/>
       <c r="B124" s="1">
         <v>10330057</v>
@@ -7121,7 +6569,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="125" ht="17.25" spans="1:5">
+    <row r="125" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A125" s="8"/>
       <c r="B125" s="1">
         <v>10330058</v>
@@ -7136,7 +6584,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="126" ht="17.25" spans="1:5">
+    <row r="126" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A126" s="8"/>
       <c r="B126" s="1">
         <v>10330059</v>
@@ -7151,7 +6599,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="127" ht="17.25" spans="1:5">
+    <row r="127" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A127" s="8"/>
       <c r="B127" s="1">
         <v>10330060</v>
@@ -7166,7 +6614,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="128" ht="17.25" spans="1:5">
+    <row r="128" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A128" s="8"/>
       <c r="B128" s="1">
         <v>10330061</v>
@@ -7181,7 +6629,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="129" ht="17.25" spans="1:5">
+    <row r="129" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A129" s="8"/>
       <c r="B129" s="1">
         <v>10330062</v>
@@ -7196,7 +6644,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="130" ht="17.25" spans="1:5">
+    <row r="130" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A130" s="8"/>
       <c r="B130" s="1">
         <v>10330063</v>
@@ -7211,7 +6659,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="131" ht="17.25" spans="1:5">
+    <row r="131" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A131" s="8"/>
       <c r="B131" s="1">
         <v>10330064</v>
@@ -7226,7 +6674,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="132" ht="34.5" spans="1:5">
+    <row r="132" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A132" s="8"/>
       <c r="B132" s="1">
         <v>10330065</v>
@@ -7241,7 +6689,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="133" ht="17.25" spans="1:5">
+    <row r="133" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A133" s="8"/>
       <c r="B133" s="1">
         <v>10330066</v>
@@ -7256,7 +6704,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="134" ht="17.25" spans="1:5">
+    <row r="134" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A134" s="8"/>
       <c r="B134" s="1">
         <v>10330067</v>
@@ -7271,7 +6719,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="135" ht="17.25" spans="1:5">
+    <row r="135" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A135" s="8"/>
       <c r="B135" s="1">
         <v>10330068</v>
@@ -7286,7 +6734,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="136" ht="34.5" spans="1:5">
+    <row r="136" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A136" s="8"/>
       <c r="B136" s="1">
         <v>10330069</v>
@@ -7301,7 +6749,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="137" ht="34.5" spans="1:5">
+    <row r="137" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A137" s="8"/>
       <c r="B137" s="1">
         <v>10330070</v>
@@ -7316,7 +6764,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="138" ht="34.5" spans="1:5">
+    <row r="138" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A138" s="8"/>
       <c r="B138" s="1">
         <v>10330071</v>
@@ -7331,7 +6779,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="139" ht="34.5" spans="1:5">
+    <row r="139" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A139" s="8"/>
       <c r="B139" s="1">
         <v>10330072</v>
@@ -7346,7 +6794,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="140" ht="34.5" spans="1:5">
+    <row r="140" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A140" s="8"/>
       <c r="B140" s="1">
         <v>10330073</v>
@@ -7361,7 +6809,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="141" ht="34.5" spans="1:5">
+    <row r="141" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A141" s="8"/>
       <c r="B141" s="1">
         <v>10330074</v>
@@ -7376,7 +6824,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="142" ht="34.5" spans="1:5">
+    <row r="142" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A142" s="8"/>
       <c r="B142" s="1">
         <v>10330075</v>
@@ -7391,7 +6839,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="143" ht="17.25" spans="1:5">
+    <row r="143" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A143" s="8"/>
       <c r="B143" s="1">
         <v>10330076</v>
@@ -7406,7 +6854,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="144" ht="17.25" spans="1:5">
+    <row r="144" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A144" s="8"/>
       <c r="B144" s="1">
         <v>10330077</v>
@@ -7421,7 +6869,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="145" ht="17.25" spans="1:5">
+    <row r="145" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A145" s="8"/>
       <c r="B145" s="1">
         <v>10330078</v>
@@ -7436,7 +6884,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="146" ht="17.25" spans="1:5">
+    <row r="146" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A146" s="8"/>
       <c r="B146" s="1">
         <v>10330079</v>
@@ -7451,7 +6899,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="147" ht="17.25" spans="1:5">
+    <row r="147" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A147" s="8"/>
       <c r="B147" s="1">
         <v>10330080</v>
@@ -7466,7 +6914,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="148" ht="17.25" spans="1:5">
+    <row r="148" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A148" s="8"/>
       <c r="B148" s="1">
         <v>10330081</v>
@@ -7481,7 +6929,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="149" ht="17.25" spans="1:5">
+    <row r="149" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A149" s="8"/>
       <c r="B149" s="1">
         <v>10330082</v>
@@ -7496,7 +6944,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="150" ht="17.25" spans="1:5">
+    <row r="150" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A150" s="8"/>
       <c r="B150" s="1">
         <v>10330083</v>
@@ -7511,7 +6959,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="151" ht="17.25" spans="1:5">
+    <row r="151" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A151" s="8"/>
       <c r="B151" s="1">
         <v>10330084</v>
@@ -7526,7 +6974,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="152" ht="17.25" spans="1:5">
+    <row r="152" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A152" s="8"/>
       <c r="B152" s="1">
         <v>10330085</v>
@@ -7541,7 +6989,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="153" ht="17.25" spans="1:5">
+    <row r="153" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A153" s="8"/>
       <c r="B153" s="1">
         <v>10330086</v>
@@ -7556,7 +7004,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="154" ht="17.25" spans="1:5">
+    <row r="154" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A154" s="8"/>
       <c r="B154" s="1">
         <v>10330087</v>
@@ -7571,7 +7019,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="155" ht="17.25" spans="1:5">
+    <row r="155" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A155" s="8"/>
       <c r="B155" s="1">
         <v>10330088</v>
@@ -7586,7 +7034,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="156" ht="17.25" spans="1:5">
+    <row r="156" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A156" s="8"/>
       <c r="B156" s="1">
         <v>10330089</v>
@@ -7601,7 +7049,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="157" ht="17.25" spans="1:5">
+    <row r="157" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A157" s="8"/>
       <c r="B157" s="1">
         <v>10330090</v>
@@ -7616,7 +7064,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="158" ht="17.25" spans="1:5">
+    <row r="158" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A158" s="8"/>
       <c r="B158" s="1">
         <v>10330091</v>
@@ -7631,7 +7079,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="159" ht="17.25" spans="1:5">
+    <row r="159" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A159" s="8"/>
       <c r="B159" s="1">
         <v>10330092</v>
@@ -7646,7 +7094,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="160" ht="17.25" spans="1:5">
+    <row r="160" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A160" s="8"/>
       <c r="B160" s="1">
         <v>10330093</v>
@@ -7661,7 +7109,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="161" ht="17.25" spans="1:5">
+    <row r="161" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A161" s="8"/>
       <c r="B161" s="1">
         <v>10330094</v>
@@ -7676,7 +7124,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="162" ht="17.25" spans="1:5">
+    <row r="162" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A162" s="8"/>
       <c r="B162" s="1">
         <v>10330095</v>
@@ -7691,7 +7139,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="163" ht="17.25" spans="1:5">
+    <row r="163" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A163" s="8"/>
       <c r="B163" s="1">
         <v>10330096</v>
@@ -7706,7 +7154,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="164" ht="17.25" spans="1:5">
+    <row r="164" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A164" s="8"/>
       <c r="B164" s="1">
         <v>10330097</v>
@@ -7721,7 +7169,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="165" ht="17.25" spans="1:5">
+    <row r="165" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A165" s="8"/>
       <c r="B165" s="1">
         <v>10330098</v>
@@ -7736,7 +7184,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="166" ht="17.25" spans="1:5">
+    <row r="166" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A166" s="8"/>
       <c r="B166" s="1">
         <v>10330099</v>
@@ -7751,7 +7199,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="167" ht="17.25" spans="1:5">
+    <row r="167" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A167" s="8"/>
       <c r="B167" s="1">
         <v>10330100</v>
@@ -7766,7 +7214,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="168" ht="17.25" spans="1:5">
+    <row r="168" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A168" s="8"/>
       <c r="B168" s="1">
         <v>10330101</v>
@@ -7781,7 +7229,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="169" ht="17.25" spans="1:5">
+    <row r="169" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A169" s="8"/>
       <c r="B169" s="1">
         <v>10330102</v>
@@ -7796,7 +7244,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="170" ht="17.25" spans="1:5">
+    <row r="170" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A170" s="8"/>
       <c r="B170" s="1">
         <v>10330103</v>
@@ -7811,7 +7259,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="171" ht="17.25" spans="1:5">
+    <row r="171" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A171" s="8"/>
       <c r="B171" s="1">
         <v>10330104</v>
@@ -7826,7 +7274,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="172" ht="17.25" spans="1:5">
+    <row r="172" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A172" s="8"/>
       <c r="B172" s="1">
         <v>10330105</v>
@@ -7841,7 +7289,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="173" ht="17.25" spans="1:5">
+    <row r="173" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A173" s="8"/>
       <c r="B173" s="1">
         <v>10330106</v>
@@ -7856,7 +7304,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="174" ht="17.25" spans="1:5">
+    <row r="174" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A174" s="8"/>
       <c r="B174" s="1">
         <v>10330107</v>
@@ -7871,7 +7319,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="175" ht="17.25" spans="1:5">
+    <row r="175" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A175" s="8"/>
       <c r="B175" s="1">
         <v>10330108</v>
@@ -7886,7 +7334,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="176" ht="17.25" spans="1:5">
+    <row r="176" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A176" s="8"/>
       <c r="B176" s="1">
         <v>10330109</v>
@@ -7901,7 +7349,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="177" ht="17.25" spans="1:5">
+    <row r="177" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A177" s="8"/>
       <c r="B177" s="1">
         <v>10330110</v>
@@ -7916,7 +7364,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="178" ht="17.25" spans="1:5">
+    <row r="178" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A178" s="8"/>
       <c r="B178" s="1">
         <v>10330111</v>
@@ -7931,7 +7379,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="179" ht="17.25" spans="1:5">
+    <row r="179" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A179" s="8"/>
       <c r="B179" s="1">
         <v>10330112</v>
@@ -7946,7 +7394,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="180" ht="17.25" spans="1:5">
+    <row r="180" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A180" s="8"/>
       <c r="B180" s="1">
         <v>10330113</v>
@@ -7961,7 +7409,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="181" ht="17.25" spans="1:5">
+    <row r="181" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A181" s="8"/>
       <c r="B181" s="1">
         <v>10330114</v>
@@ -7976,7 +7424,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="182" ht="17.25" spans="1:5">
+    <row r="182" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A182" s="8"/>
       <c r="B182" s="1">
         <v>10330115</v>
@@ -7991,7 +7439,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="183" ht="17.25" spans="1:5">
+    <row r="183" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A183" s="8"/>
       <c r="B183" s="1">
         <v>10330116</v>
@@ -8006,7 +7454,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="184" ht="17.25" spans="1:5">
+    <row r="184" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A184" s="8"/>
       <c r="B184" s="1">
         <v>10330117</v>
@@ -8021,7 +7469,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="185" ht="17.25" spans="1:5">
+    <row r="185" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A185" s="8"/>
       <c r="B185" s="1">
         <v>10330118</v>
@@ -8036,7 +7484,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="186" ht="17.25" spans="1:5">
+    <row r="186" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A186" s="8"/>
       <c r="B186" s="1">
         <v>10330119</v>
@@ -8051,7 +7499,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="187" ht="17.25" spans="1:5">
+    <row r="187" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A187" s="8"/>
       <c r="B187" s="1">
         <v>10330120</v>
@@ -8066,7 +7514,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="188" ht="17.25" spans="1:5">
+    <row r="188" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A188" s="8"/>
       <c r="B188" s="1">
         <v>10330121</v>
@@ -8081,7 +7529,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="189" ht="17.25" spans="1:5">
+    <row r="189" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A189" s="8"/>
       <c r="B189" s="1">
         <v>10330122</v>
@@ -8096,7 +7544,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="190" ht="17.25" spans="1:5">
+    <row r="190" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A190" s="8"/>
       <c r="B190" s="1">
         <v>10330123</v>
@@ -8111,7 +7559,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="191" ht="34.5" spans="1:5">
+    <row r="191" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A191" s="8"/>
       <c r="B191" s="1">
         <v>10330124</v>
@@ -8126,7 +7574,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="192" ht="17.25" spans="1:5">
+    <row r="192" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A192" s="8"/>
       <c r="B192" s="1">
         <v>10330125</v>
@@ -8141,7 +7589,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="193" ht="17.25" spans="1:5">
+    <row r="193" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A193" s="8"/>
       <c r="B193" s="1">
         <v>10330126</v>
@@ -8156,7 +7604,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="194" ht="17.25" spans="1:5">
+    <row r="194" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A194" s="8"/>
       <c r="B194" s="1">
         <v>10030001</v>
@@ -8171,7 +7619,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="195" ht="17.25" spans="1:5">
+    <row r="195" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A195" s="8"/>
       <c r="B195" s="1">
         <v>10030002</v>
@@ -8186,7 +7634,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="196" ht="17.25" spans="1:5">
+    <row r="196" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A196" s="8"/>
       <c r="B196" s="1">
         <v>10030003</v>
@@ -8201,7 +7649,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="197" ht="17.25" spans="1:5">
+    <row r="197" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A197" s="8"/>
       <c r="B197" s="1">
         <v>10030004</v>
@@ -8216,7 +7664,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="198" ht="17.25" spans="1:5">
+    <row r="198" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A198" s="8"/>
       <c r="B198" s="1">
         <v>10030005</v>
@@ -8231,7 +7679,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="199" ht="17.25" spans="1:5">
+    <row r="199" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A199" s="8"/>
       <c r="B199" s="1">
         <v>10030006</v>
@@ -8246,7 +7694,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="200" ht="17.25" spans="1:5">
+    <row r="200" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A200" s="8"/>
       <c r="B200" s="1">
         <v>10030007</v>
@@ -8261,7 +7709,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="201" ht="17.25" spans="1:5">
+    <row r="201" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A201" s="8"/>
       <c r="B201" s="1">
         <v>10030008</v>
@@ -8276,7 +7724,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="202" ht="17.25" spans="1:5">
+    <row r="202" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A202" s="8"/>
       <c r="B202" s="1">
         <v>10030009</v>
@@ -8291,7 +7739,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="203" ht="17.25" spans="1:5">
+    <row r="203" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A203" s="8"/>
       <c r="B203" s="1">
         <v>10030010</v>
@@ -8306,7 +7754,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="204" ht="17.25" spans="1:5">
+    <row r="204" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A204" s="8"/>
       <c r="B204" s="1">
         <v>10040001</v>
@@ -8321,7 +7769,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="205" ht="17.25" spans="1:5">
+    <row r="205" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A205" s="8"/>
       <c r="B205" s="1">
         <v>10040002</v>
@@ -8336,7 +7784,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="206" ht="17.25" spans="1:5">
+    <row r="206" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A206" s="8"/>
       <c r="B206" s="1">
         <v>10040003</v>
@@ -8351,7 +7799,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="207" ht="17.25" spans="1:5">
+    <row r="207" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A207" s="8"/>
       <c r="B207" s="1">
         <v>10040004</v>
@@ -8366,7 +7814,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="208" ht="17.25" spans="1:5">
+    <row r="208" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A208" s="8"/>
       <c r="B208" s="1">
         <v>10040005</v>
@@ -8381,7 +7829,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="209" ht="17.25" spans="1:5">
+    <row r="209" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A209" s="8"/>
       <c r="B209" s="1">
         <v>10040006</v>
@@ -8396,7 +7844,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="210" ht="17.25" spans="1:5">
+    <row r="210" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A210" s="8"/>
       <c r="B210" s="1">
         <v>10040007</v>
@@ -8411,7 +7859,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="211" ht="17.25" spans="1:5">
+    <row r="211" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A211" s="8"/>
       <c r="B211" s="1">
         <v>10040008</v>
@@ -8426,7 +7874,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="212" ht="17.25" spans="1:5">
+    <row r="212" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A212" s="8"/>
       <c r="B212" s="1">
         <v>10040009</v>
@@ -8441,7 +7889,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="213" ht="17.25" spans="1:5">
+    <row r="213" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A213" s="8"/>
       <c r="B213" s="1">
         <v>10040010</v>
@@ -8456,7 +7904,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="214" ht="17.25" spans="1:5">
+    <row r="214" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A214" s="8"/>
       <c r="B214" s="1">
         <v>10040011</v>
@@ -8471,7 +7919,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="215" ht="17.25" spans="1:5">
+    <row r="215" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A215" s="8"/>
       <c r="B215" s="1">
         <v>10040012</v>
@@ -8486,7 +7934,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="216" ht="17.25" spans="1:5">
+    <row r="216" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A216" s="8"/>
       <c r="B216" s="1">
         <v>10040013</v>
@@ -8501,7 +7949,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="217" ht="17.25" spans="1:5">
+    <row r="217" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A217" s="8"/>
       <c r="B217" s="1">
         <v>10040014</v>
@@ -8516,7 +7964,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="218" ht="17.25" spans="1:5">
+    <row r="218" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A218" s="8"/>
       <c r="B218" s="1">
         <v>10040015</v>
@@ -8531,7 +7979,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="219" ht="17.25" spans="1:5">
+    <row r="219" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A219" s="8"/>
       <c r="B219" s="1">
         <v>10050001</v>
@@ -8546,7 +7994,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="220" ht="17.25" spans="1:5">
+    <row r="220" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A220" s="8"/>
       <c r="B220" s="1">
         <v>10050002</v>
@@ -8561,7 +8009,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="221" ht="17.25" spans="1:5">
+    <row r="221" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A221" s="8"/>
       <c r="B221" s="1">
         <v>10050003</v>
@@ -8576,7 +8024,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="222" ht="17.25" spans="1:5">
+    <row r="222" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A222" s="8"/>
       <c r="B222" s="1">
         <v>10050004</v>
@@ -8591,7 +8039,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="223" ht="17.25" spans="1:5">
+    <row r="223" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A223" s="8"/>
       <c r="B223" s="1">
         <v>10050005</v>
@@ -8606,7 +8054,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="224" ht="17.25" spans="1:5">
+    <row r="224" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A224" s="8"/>
       <c r="B224" s="1">
         <v>10050006</v>
@@ -8621,7 +8069,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="225" ht="17.25" spans="1:5">
+    <row r="225" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A225" s="8"/>
       <c r="B225" s="1">
         <v>10050007</v>
@@ -8636,7 +8084,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="226" ht="17.25" spans="1:5">
+    <row r="226" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A226" s="8"/>
       <c r="B226" s="1">
         <v>10050008</v>
@@ -8651,7 +8099,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="227" ht="17.25" spans="1:5">
+    <row r="227" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A227" s="8"/>
       <c r="B227" s="1">
         <v>10050009</v>
@@ -8666,7 +8114,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="228" ht="17.25" spans="1:5">
+    <row r="228" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A228" s="8"/>
       <c r="B228" s="1">
         <v>10050010</v>
@@ -8681,7 +8129,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="229" ht="17.25" spans="1:5">
+    <row r="229" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A229" s="8"/>
       <c r="B229" s="1">
         <v>10050011</v>
@@ -8696,7 +8144,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="230" ht="17.25" spans="1:5">
+    <row r="230" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A230" s="8"/>
       <c r="B230" s="1">
         <v>10050012</v>
@@ -8711,7 +8159,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="231" ht="17.25" spans="1:5">
+    <row r="231" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A231" s="8"/>
       <c r="B231" s="1">
         <v>10050013</v>
@@ -8726,7 +8174,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="232" ht="17.25" spans="1:5">
+    <row r="232" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A232" s="8"/>
       <c r="B232" s="1">
         <v>10050014</v>
@@ -8741,7 +8189,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="233" ht="17.25" spans="1:5">
+    <row r="233" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A233" s="8"/>
       <c r="B233" s="1">
         <v>10050015</v>
@@ -8756,7 +8204,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="234" ht="17.25" spans="1:5">
+    <row r="234" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A234" s="8"/>
       <c r="B234" s="1">
         <v>10050016</v>
@@ -8771,7 +8219,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="235" ht="17.25" spans="1:5">
+    <row r="235" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A235" s="8"/>
       <c r="B235" s="1">
         <v>10050017</v>
@@ -8786,7 +8234,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="236" ht="17.25" spans="1:5">
+    <row r="236" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A236" s="8"/>
       <c r="B236" s="1">
         <v>10050018</v>
@@ -8801,7 +8249,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="237" ht="17.25" spans="1:5">
+    <row r="237" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A237" s="8"/>
       <c r="B237" s="1">
         <v>10050019</v>
@@ -8816,7 +8264,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="238" ht="17.25" spans="1:5">
+    <row r="238" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A238" s="8"/>
       <c r="B238" s="1">
         <v>10050020</v>
@@ -8831,7 +8279,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="239" ht="17.25" spans="1:5">
+    <row r="239" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A239" s="8"/>
       <c r="B239" s="1">
         <v>10050021</v>
@@ -8846,7 +8294,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="240" ht="17.25" spans="1:5">
+    <row r="240" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A240" s="8"/>
       <c r="B240" s="1">
         <v>10050022</v>
@@ -8861,7 +8309,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="241" ht="17.25" spans="1:5">
+    <row r="241" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A241" s="8"/>
       <c r="B241" s="1">
         <v>10050023</v>
@@ -8876,7 +8324,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="242" ht="17.25" spans="1:5">
+    <row r="242" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A242" s="8"/>
       <c r="B242" s="1">
         <v>10050024</v>
@@ -8891,7 +8339,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="243" ht="17.25" spans="1:5">
+    <row r="243" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A243" s="8"/>
       <c r="B243" s="1">
         <v>10050025</v>
@@ -8906,7 +8354,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="244" ht="17.25" spans="1:5">
+    <row r="244" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A244" s="8"/>
       <c r="B244" s="1">
         <v>10050026</v>
@@ -8921,7 +8369,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="245" ht="17.25" spans="1:5">
+    <row r="245" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A245" s="8"/>
       <c r="B245" s="1">
         <v>10050027</v>
@@ -8936,7 +8384,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="246" ht="17.25" spans="1:5">
+    <row r="246" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A246" s="8"/>
       <c r="B246" s="1">
         <v>10060001</v>
@@ -8951,7 +8399,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="247" ht="17.25" spans="1:5">
+    <row r="247" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A247" s="8"/>
       <c r="B247" s="1">
         <v>10060002</v>
@@ -8966,7 +8414,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="248" ht="17.25" spans="1:5">
+    <row r="248" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A248" s="8"/>
       <c r="B248" s="1">
         <v>10060003</v>
@@ -8981,7 +8429,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="249" ht="17.25" spans="1:5">
+    <row r="249" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A249" s="8"/>
       <c r="B249" s="1">
         <v>10060004</v>
@@ -8996,7 +8444,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="250" ht="17.25" spans="1:5">
+    <row r="250" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A250" s="8"/>
       <c r="B250" s="1">
         <v>10060005</v>
@@ -9011,7 +8459,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="251" ht="17.25" spans="1:5">
+    <row r="251" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A251" s="8"/>
       <c r="B251" s="1">
         <v>10060006</v>
@@ -9026,7 +8474,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="252" ht="17.25" spans="1:5">
+    <row r="252" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A252" s="8"/>
       <c r="B252" s="1">
         <v>10060007</v>
@@ -9041,7 +8489,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="253" ht="17.25" spans="1:5">
+    <row r="253" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A253" s="8"/>
       <c r="B253" s="1">
         <v>10060008</v>
@@ -9056,7 +8504,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="254" ht="17.25" spans="1:5">
+    <row r="254" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A254" s="8"/>
       <c r="B254" s="1">
         <v>10060009</v>
@@ -9071,7 +8519,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="255" ht="17.25" spans="1:5">
+    <row r="255" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A255" s="8"/>
       <c r="B255" s="1">
         <v>10060010</v>
@@ -9086,7 +8534,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="256" ht="17.25" spans="1:5">
+    <row r="256" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A256" s="8"/>
       <c r="B256" s="1">
         <v>10060011</v>
@@ -9101,7 +8549,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="257" ht="17.25" spans="1:5">
+    <row r="257" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A257" s="8"/>
       <c r="B257" s="1">
         <v>10060012</v>
@@ -9116,7 +8564,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="258" ht="34.5" spans="1:5">
+    <row r="258" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A258" s="8"/>
       <c r="B258" s="1">
         <v>10060013</v>
@@ -9131,7 +8579,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="259" ht="34.5" spans="1:5">
+    <row r="259" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A259" s="8"/>
       <c r="B259" s="1">
         <v>10060014</v>
@@ -9146,7 +8594,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="260" ht="34.5" spans="1:5">
+    <row r="260" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A260" s="8"/>
       <c r="B260" s="1">
         <v>10060015</v>
@@ -9161,7 +8609,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="261" ht="34.5" spans="1:5">
+    <row r="261" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A261" s="8"/>
       <c r="B261" s="1">
         <v>10060016</v>
@@ -9176,7 +8624,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="262" ht="34.5" spans="1:5">
+    <row r="262" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A262" s="8"/>
       <c r="B262" s="1">
         <v>10060017</v>
@@ -9191,7 +8639,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="263" ht="34.5" spans="1:5">
+    <row r="263" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A263" s="8"/>
       <c r="B263" s="1">
         <v>10060018</v>
@@ -9206,7 +8654,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="264" ht="34.5" spans="1:5">
+    <row r="264" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A264" s="8"/>
       <c r="B264" s="1">
         <v>10060019</v>
@@ -9221,7 +8669,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="265" ht="34.5" spans="1:5">
+    <row r="265" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A265" s="8"/>
       <c r="B265" s="1">
         <v>10060020</v>
@@ -9236,7 +8684,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="266" ht="34.5" spans="1:5">
+    <row r="266" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A266" s="8"/>
       <c r="B266" s="1">
         <v>10060021</v>
@@ -9251,7 +8699,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="267" ht="17.25" spans="1:5">
+    <row r="267" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A267" s="8"/>
       <c r="B267" s="1">
         <v>10060022</v>
@@ -9266,7 +8714,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="268" ht="17.25" spans="1:5">
+    <row r="268" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A268" s="8"/>
       <c r="B268" s="1">
         <v>10060023</v>
@@ -9281,7 +8729,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="269" ht="17.25" spans="1:5">
+    <row r="269" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A269" s="8"/>
       <c r="B269" s="1">
         <v>10060024</v>
@@ -9296,7 +8744,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="270" ht="17.25" spans="1:5">
+    <row r="270" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A270" s="8"/>
       <c r="B270" s="1">
         <v>10060025</v>
@@ -9311,7 +8759,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="271" ht="17.25" spans="1:5">
+    <row r="271" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A271" s="8"/>
       <c r="B271" s="1">
         <v>10060026</v>
@@ -9326,7 +8774,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="272" ht="34.5" spans="1:5">
+    <row r="272" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A272" s="8"/>
       <c r="B272" s="1">
         <v>10060027</v>
@@ -9341,7 +8789,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="273" ht="34.5" spans="1:5">
+    <row r="273" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A273" s="8"/>
       <c r="B273" s="1">
         <v>10060028</v>
@@ -9356,7 +8804,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="274" ht="34.5" spans="1:5">
+    <row r="274" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A274" s="8"/>
       <c r="B274" s="1">
         <v>10060029</v>
@@ -9371,7 +8819,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="275" ht="34.5" spans="1:5">
+    <row r="275" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A275" s="8"/>
       <c r="B275" s="1">
         <v>10060030</v>
@@ -9386,7 +8834,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="276" ht="34.5" spans="1:5">
+    <row r="276" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A276" s="8"/>
       <c r="B276" s="1">
         <v>10060031</v>
@@ -9401,7 +8849,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="277" ht="34.5" spans="1:5">
+    <row r="277" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A277" s="8"/>
       <c r="B277" s="1">
         <v>10060032</v>
@@ -9416,7 +8864,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="278" ht="34.5" spans="1:5">
+    <row r="278" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A278" s="8"/>
       <c r="B278" s="1">
         <v>10060033</v>
@@ -9431,7 +8879,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="279" ht="51.75" spans="1:5">
+    <row r="279" spans="1:5" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A279" s="8"/>
       <c r="B279" s="1">
         <v>10060034</v>
@@ -9446,7 +8894,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="280" ht="17.25" spans="1:5">
+    <row r="280" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A280" s="8"/>
       <c r="B280" s="1">
         <v>10060035</v>
@@ -9461,7 +8909,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="281" ht="34.5" spans="1:5">
+    <row r="281" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A281" s="8"/>
       <c r="B281" s="1">
         <v>10060036</v>
@@ -9476,7 +8924,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="282" ht="34.5" spans="1:5">
+    <row r="282" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A282" s="8"/>
       <c r="B282" s="1">
         <v>10060037</v>
@@ -9491,7 +8939,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="283" ht="34.5" spans="1:5">
+    <row r="283" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A283" s="8"/>
       <c r="B283" s="1">
         <v>10060038</v>
@@ -9506,7 +8954,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="284" ht="34.5" spans="1:5">
+    <row r="284" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A284" s="8"/>
       <c r="B284" s="1">
         <v>10060039</v>
@@ -9521,7 +8969,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="285" ht="17.25" spans="1:5">
+    <row r="285" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A285" s="8"/>
       <c r="B285" s="1">
         <v>10060040</v>
@@ -9536,7 +8984,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="286" ht="34.5" spans="1:5">
+    <row r="286" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A286" s="8"/>
       <c r="B286" s="1">
         <v>10060041</v>
@@ -9551,7 +8999,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="287" ht="17.25" spans="1:5">
+    <row r="287" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A287" s="8"/>
       <c r="B287" s="1">
         <v>10060042</v>
@@ -9566,7 +9014,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="288" ht="34.5" spans="1:5">
+    <row r="288" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A288" s="8"/>
       <c r="B288" s="1">
         <v>10060043</v>
@@ -9581,7 +9029,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="289" ht="17.25" spans="1:5">
+    <row r="289" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A289" s="8"/>
       <c r="B289" s="1">
         <v>10060044</v>
@@ -9596,7 +9044,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="290" ht="34.5" spans="1:5">
+    <row r="290" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A290" s="8"/>
       <c r="B290" s="1">
         <v>10060045</v>
@@ -9611,7 +9059,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="291" ht="34.5" spans="1:5">
+    <row r="291" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A291" s="8"/>
       <c r="B291" s="1">
         <v>10060046</v>
@@ -9626,7 +9074,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="292" ht="34.5" spans="1:5">
+    <row r="292" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A292" s="8"/>
       <c r="B292" s="1">
         <v>10060047</v>
@@ -9641,7 +9089,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="293" ht="51.75" spans="1:5">
+    <row r="293" spans="1:5" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A293" s="8"/>
       <c r="B293" s="1">
         <v>10060048</v>
@@ -9656,7 +9104,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="294" ht="17.25" spans="1:5">
+    <row r="294" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A294" s="8"/>
       <c r="B294" s="1">
         <v>10060049</v>
@@ -9671,7 +9119,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="295" ht="34.5" spans="1:5">
+    <row r="295" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A295" s="8"/>
       <c r="B295" s="1">
         <v>10060050</v>
@@ -9686,7 +9134,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="296" ht="34.5" spans="1:5">
+    <row r="296" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A296" s="8"/>
       <c r="B296" s="1">
         <v>10060051</v>
@@ -9701,7 +9149,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="297" ht="17.25" spans="1:5">
+    <row r="297" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A297" s="8"/>
       <c r="B297" s="1">
         <v>10060052</v>
@@ -9716,7 +9164,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="298" ht="34.5" spans="1:5">
+    <row r="298" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A298" s="8"/>
       <c r="B298" s="1">
         <v>10060053</v>
@@ -9731,7 +9179,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="299" ht="17.25" spans="1:5">
+    <row r="299" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A299" s="8"/>
       <c r="B299" s="1">
         <v>10060054</v>
@@ -9746,7 +9194,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="300" ht="17.25" spans="1:5">
+    <row r="300" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A300" s="8"/>
       <c r="B300" s="1">
         <v>10060055</v>
@@ -9761,7 +9209,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="301" ht="17.25" spans="1:5">
+    <row r="301" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A301" s="8"/>
       <c r="B301" s="1">
         <v>10060056</v>
@@ -9776,7 +9224,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="302" ht="17.25" spans="1:5">
+    <row r="302" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A302" s="8"/>
       <c r="B302" s="1">
         <v>10060057</v>
@@ -9791,7 +9239,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="303" ht="51.75" spans="1:5">
+    <row r="303" spans="1:5" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A303" s="8"/>
       <c r="B303" s="1">
         <v>10060058</v>
@@ -9806,7 +9254,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="304" ht="51.75" spans="1:5">
+    <row r="304" spans="1:5" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A304" s="8"/>
       <c r="B304" s="1">
         <v>10060059</v>
@@ -9821,7 +9269,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="305" ht="17.25" spans="1:5">
+    <row r="305" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A305" s="8"/>
       <c r="B305" s="1">
         <v>10060060</v>
@@ -9836,7 +9284,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="306" ht="34.5" spans="1:5">
+    <row r="306" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A306" s="8"/>
       <c r="B306" s="1">
         <v>10060061</v>
@@ -9851,7 +9299,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="307" ht="17.25" spans="1:5">
+    <row r="307" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A307" s="8"/>
       <c r="B307" s="1">
         <v>10060062</v>
@@ -9866,7 +9314,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="308" ht="17.25" spans="1:5">
+    <row r="308" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A308" s="8"/>
       <c r="B308" s="1">
         <v>10060063</v>
@@ -9881,7 +9329,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="309" ht="17.25" spans="1:5">
+    <row r="309" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A309" s="8"/>
       <c r="B309" s="1">
         <v>10060064</v>
@@ -9896,7 +9344,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="310" ht="34.5" spans="1:5">
+    <row r="310" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A310" s="8"/>
       <c r="B310" s="1">
         <v>10060065</v>
@@ -9911,7 +9359,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="311" ht="34.5" spans="1:5">
+    <row r="311" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A311" s="8"/>
       <c r="B311" s="1">
         <v>10060066</v>
@@ -9926,7 +9374,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="312" ht="34.5" spans="1:5">
+    <row r="312" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A312" s="8"/>
       <c r="B312" s="1">
         <v>10060067</v>
@@ -9941,7 +9389,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="313" ht="17.25" spans="1:5">
+    <row r="313" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A313" s="8"/>
       <c r="B313" s="1">
         <v>10060068</v>
@@ -9956,7 +9404,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="314" ht="34.5" spans="1:5">
+    <row r="314" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A314" s="8"/>
       <c r="B314" s="1">
         <v>10060069</v>
@@ -9971,7 +9419,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="315" ht="17.25" spans="1:5">
+    <row r="315" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A315" s="8"/>
       <c r="B315" s="1">
         <v>10060070</v>
@@ -9986,7 +9434,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="316" ht="51.75" spans="1:5">
+    <row r="316" spans="1:5" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A316" s="8"/>
       <c r="B316" s="1">
         <v>10060071</v>
@@ -10001,7 +9449,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="317" ht="34.5" spans="1:5">
+    <row r="317" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A317" s="8"/>
       <c r="B317" s="1">
         <v>10060072</v>
@@ -10016,7 +9464,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="318" ht="34.5" spans="1:5">
+    <row r="318" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A318" s="8"/>
       <c r="B318" s="1">
         <v>10060073</v>
@@ -10031,7 +9479,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="319" ht="34.5" spans="1:5">
+    <row r="319" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A319" s="8"/>
       <c r="B319" s="1">
         <v>10060074</v>
@@ -10046,7 +9494,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="320" ht="17.25" spans="1:5">
+    <row r="320" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A320" s="8"/>
       <c r="B320" s="1">
         <v>10060075</v>
@@ -10061,7 +9509,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="321" ht="34.5" spans="1:5">
+    <row r="321" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A321" s="8"/>
       <c r="B321" s="1">
         <v>10060076</v>
@@ -10076,7 +9524,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="322" ht="69" spans="1:5">
+    <row r="322" spans="1:5" ht="69" x14ac:dyDescent="0.15">
       <c r="A322" s="8"/>
       <c r="B322" s="1">
         <v>10060077</v>
@@ -10091,7 +9539,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="323" ht="34.5" spans="1:5">
+    <row r="323" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A323" s="8"/>
       <c r="B323" s="1">
         <v>10060078</v>
@@ -10106,7 +9554,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="324" ht="34.5" spans="1:5">
+    <row r="324" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A324" s="8"/>
       <c r="B324" s="1">
         <v>10060079</v>
@@ -10121,7 +9569,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="325" ht="17.25" spans="1:5">
+    <row r="325" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A325" s="8"/>
       <c r="B325" s="1">
         <v>10060080</v>
@@ -10136,7 +9584,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="326" ht="17.25" spans="1:5">
+    <row r="326" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A326" s="8"/>
       <c r="B326" s="1">
         <v>10060081</v>
@@ -10151,7 +9599,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="327" ht="17.25" spans="1:5">
+    <row r="327" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A327" s="8"/>
       <c r="B327" s="1">
         <v>10060082</v>
@@ -10166,7 +9614,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="328" ht="17.25" spans="1:5">
+    <row r="328" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A328" s="8"/>
       <c r="B328" s="1">
         <v>10060083</v>
@@ -10181,7 +9629,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="329" ht="17.25" spans="1:5">
+    <row r="329" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A329" s="8"/>
       <c r="B329" s="1">
         <v>10060084</v>
@@ -10196,7 +9644,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="330" ht="17.25" spans="1:5">
+    <row r="330" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A330" s="8"/>
       <c r="B330" s="1">
         <v>10060085</v>
@@ -10211,7 +9659,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="331" ht="17.25" spans="1:5">
+    <row r="331" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A331" s="8"/>
       <c r="B331" s="1">
         <v>10060086</v>
@@ -10226,7 +9674,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="332" ht="17.25" spans="1:5">
+    <row r="332" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A332" s="8"/>
       <c r="B332" s="1">
         <v>10060087</v>
@@ -10241,7 +9689,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="333" ht="17.25" spans="1:5">
+    <row r="333" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A333" s="8"/>
       <c r="B333" s="1">
         <v>10060088</v>
@@ -10256,7 +9704,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="334" ht="17.25" spans="1:5">
+    <row r="334" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A334" s="8"/>
       <c r="B334" s="1">
         <v>10060089</v>
@@ -10271,7 +9719,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="335" ht="17.25" spans="1:5">
+    <row r="335" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A335" s="8"/>
       <c r="B335" s="1">
         <v>10060090</v>
@@ -10286,7 +9734,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="336" ht="17.25" spans="1:5">
+    <row r="336" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A336" s="8"/>
       <c r="B336" s="1">
         <v>10060091</v>
@@ -10301,7 +9749,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="337" ht="17.25" spans="1:5">
+    <row r="337" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A337" s="8"/>
       <c r="B337" s="1">
         <v>10060092</v>
@@ -10316,7 +9764,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="338" ht="17.25" spans="1:5">
+    <row r="338" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A338" s="8"/>
       <c r="B338" s="1">
         <v>10060093</v>
@@ -10331,7 +9779,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="339" ht="17.25" spans="1:5">
+    <row r="339" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A339" s="8"/>
       <c r="B339" s="1">
         <v>10060094</v>
@@ -10346,7 +9794,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="340" ht="17.25" spans="1:5">
+    <row r="340" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A340" s="8"/>
       <c r="B340" s="1">
         <v>10060095</v>
@@ -10361,7 +9809,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="341" ht="17.25" spans="1:5">
+    <row r="341" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A341" s="8"/>
       <c r="B341" s="1">
         <v>10060096</v>
@@ -10376,7 +9824,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="342" ht="17.25" spans="1:5">
+    <row r="342" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A342" s="8"/>
       <c r="B342" s="1">
         <v>10060097</v>
@@ -10391,7 +9839,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="343" ht="17.25" spans="1:5">
+    <row r="343" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A343" s="8"/>
       <c r="B343" s="1">
         <v>10060098</v>
@@ -10406,7 +9854,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="344" ht="17.25" spans="1:5">
+    <row r="344" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A344" s="8"/>
       <c r="B344" s="1">
         <v>10060099</v>
@@ -10421,7 +9869,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="345" ht="17.25" spans="1:5">
+    <row r="345" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A345" s="8"/>
       <c r="B345" s="1">
         <v>10060100</v>
@@ -10436,7 +9884,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="346" ht="17.25" spans="1:5">
+    <row r="346" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A346" s="8"/>
       <c r="B346" s="1">
         <v>10060101</v>
@@ -10451,7 +9899,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="347" ht="34.5" spans="1:5">
+    <row r="347" spans="1:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A347" s="8"/>
       <c r="B347" s="1">
         <v>10060102</v>
@@ -10466,7 +9914,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="348" ht="17.25" spans="1:5">
+    <row r="348" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A348" s="8"/>
       <c r="B348" s="1">
         <v>10060103</v>
@@ -10481,7 +9929,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="349" ht="17.25" spans="1:5">
+    <row r="349" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A349" s="8"/>
       <c r="B349" s="1">
         <v>10070001</v>
@@ -10496,7 +9944,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="350" ht="17.25" spans="1:5">
+    <row r="350" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A350" s="8"/>
       <c r="B350" s="1">
         <v>10070002</v>
@@ -10511,7 +9959,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="351" ht="17.25" spans="1:5">
+    <row r="351" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A351" s="8"/>
       <c r="B351" s="1">
         <v>10070003</v>
@@ -10526,7 +9974,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="352" ht="17.25" spans="1:5">
+    <row r="352" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A352" s="8"/>
       <c r="B352" s="1">
         <v>10070004</v>
@@ -10541,7 +9989,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="353" ht="17.25" spans="1:5">
+    <row r="353" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A353" s="8"/>
       <c r="B353" s="1">
         <v>10070005</v>
@@ -10556,7 +10004,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="354" ht="17.25" spans="1:5">
+    <row r="354" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A354" s="8"/>
       <c r="B354" s="1">
         <v>10070006</v>
@@ -10571,7 +10019,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="355" ht="17.25" spans="1:5">
+    <row r="355" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A355" s="8"/>
       <c r="B355" s="1">
         <v>10070007</v>
@@ -10586,7 +10034,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="356" ht="17.25" spans="1:5">
+    <row r="356" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A356" s="8"/>
       <c r="B356" s="1">
         <v>10070008</v>
@@ -10601,7 +10049,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="357" ht="17.25" spans="1:5">
+    <row r="357" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A357" s="8"/>
       <c r="B357" s="1">
         <v>10070009</v>
@@ -10616,7 +10064,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="358" ht="17.25" spans="1:5">
+    <row r="358" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A358" s="8"/>
       <c r="B358" s="1">
         <v>10070010</v>
@@ -10631,7 +10079,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="359" ht="17.25" spans="1:5">
+    <row r="359" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A359" s="8"/>
       <c r="B359" s="1">
         <v>10070011</v>
@@ -10646,7 +10094,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="360" ht="17.25" spans="1:5">
+    <row r="360" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A360" s="8"/>
       <c r="B360" s="1">
         <v>10070012</v>
@@ -10661,7 +10109,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="361" ht="17.25" spans="1:5">
+    <row r="361" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A361" s="8"/>
       <c r="B361" s="1">
         <v>10070013</v>
@@ -10676,7 +10124,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="362" ht="17.25" spans="1:5">
+    <row r="362" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A362" s="8"/>
       <c r="B362" s="1">
         <v>10070014</v>
@@ -10691,7 +10139,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="363" ht="17.25" spans="1:5">
+    <row r="363" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A363" s="8"/>
       <c r="B363" s="1">
         <v>10070015</v>
@@ -10706,7 +10154,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="364" ht="17.25" spans="1:5">
+    <row r="364" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A364" s="8"/>
       <c r="B364" s="1">
         <v>10070016</v>
@@ -10721,7 +10169,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="365" ht="17.25" spans="1:5">
+    <row r="365" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A365" s="8"/>
       <c r="B365" s="1">
         <v>10070017</v>
@@ -10736,7 +10184,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="366" ht="17.25" spans="1:5">
+    <row r="366" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A366" s="8"/>
       <c r="B366" s="1">
         <v>10070018</v>
@@ -10751,7 +10199,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="367" ht="17.25" spans="1:5">
+    <row r="367" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A367" s="8"/>
       <c r="B367" s="1">
         <v>10070019</v>
@@ -10766,7 +10214,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="368" ht="17.25" spans="1:5">
+    <row r="368" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A368" s="8"/>
       <c r="B368" s="1">
         <v>10070020</v>
@@ -10781,7 +10229,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="369" ht="17.25" spans="1:5">
+    <row r="369" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A369" s="8"/>
       <c r="B369" s="1">
         <v>10080001</v>
@@ -10796,7 +10244,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="370" ht="17.25" spans="1:5">
+    <row r="370" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A370" s="8"/>
       <c r="B370" s="1">
         <v>10080002</v>
@@ -10811,7 +10259,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="371" ht="17.25" spans="1:5">
+    <row r="371" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A371" s="8"/>
       <c r="B371" s="1">
         <v>10080003</v>
@@ -10826,7 +10274,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="372" ht="17.25" spans="1:5">
+    <row r="372" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A372" s="8"/>
       <c r="B372" s="1">
         <v>10080004</v>
@@ -10841,7 +10289,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="373" ht="17.25" spans="1:5">
+    <row r="373" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A373" s="8"/>
       <c r="B373" s="1">
         <v>10080005</v>
@@ -10856,7 +10304,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="374" ht="17.25" spans="1:5">
+    <row r="374" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A374" s="8"/>
       <c r="B374" s="1">
         <v>10080006</v>
@@ -10871,7 +10319,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="375" ht="17.25" spans="1:5">
+    <row r="375" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A375" s="8"/>
       <c r="B375" s="1">
         <v>10080007</v>
@@ -10886,7 +10334,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="376" ht="17.25" spans="1:5">
+    <row r="376" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A376" s="8"/>
       <c r="B376" s="1">
         <v>10080008</v>
@@ -10901,7 +10349,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="377" ht="17.25" spans="1:5">
+    <row r="377" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A377" s="8"/>
       <c r="B377" s="1">
         <v>10080009</v>
@@ -10916,7 +10364,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="378" ht="17.25" spans="1:5">
+    <row r="378" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A378" s="8"/>
       <c r="B378" s="1">
         <v>10090001</v>
@@ -10931,7 +10379,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="379" ht="17.25" spans="1:5">
+    <row r="379" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A379" s="8"/>
       <c r="B379" s="1">
         <v>10090002</v>
@@ -10946,7 +10394,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="380" ht="17.25" spans="1:5">
+    <row r="380" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A380" s="8"/>
       <c r="B380" s="1">
         <v>10090003</v>
@@ -10961,7 +10409,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="381" ht="17.25" spans="1:5">
+    <row r="381" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A381" s="8"/>
       <c r="B381" s="1">
         <v>10090004</v>
@@ -10976,7 +10424,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="382" ht="17.25" spans="1:5">
+    <row r="382" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A382" s="8"/>
       <c r="B382" s="1">
         <v>10090005</v>
@@ -10991,7 +10439,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="383" ht="17.25" spans="1:5">
+    <row r="383" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A383" s="8"/>
       <c r="B383" s="1">
         <v>10090006</v>
@@ -11006,7 +10454,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="384" ht="17.25" spans="1:5">
+    <row r="384" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A384" s="8"/>
       <c r="B384" s="1">
         <v>10090007</v>
@@ -11021,7 +10469,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="385" ht="17.25" spans="1:5">
+    <row r="385" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A385" s="8"/>
       <c r="B385" s="1">
         <v>10090008</v>
@@ -11036,7 +10484,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="386" ht="17.25" spans="1:5">
+    <row r="386" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A386" s="8"/>
       <c r="B386" s="1">
         <v>10090009</v>
@@ -11051,7 +10499,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="387" ht="17.25" spans="1:5">
+    <row r="387" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A387" s="8"/>
       <c r="B387" s="1">
         <v>10090010</v>
@@ -11066,7 +10514,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="388" ht="17.25" spans="1:5">
+    <row r="388" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A388" s="8"/>
       <c r="B388" s="1">
         <v>10100001</v>
@@ -11081,7 +10529,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="389" ht="17.25" spans="1:5">
+    <row r="389" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A389" s="8"/>
       <c r="B389" s="1">
         <v>10100002</v>
@@ -11096,7 +10544,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="390" ht="17.25" spans="1:5">
+    <row r="390" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A390" s="8"/>
       <c r="B390" s="1">
         <v>10100003</v>
@@ -11111,7 +10559,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="391" ht="17.25" spans="1:5">
+    <row r="391" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A391" s="8"/>
       <c r="B391" s="1">
         <v>10100004</v>
@@ -11126,7 +10574,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="392" ht="17.25" spans="1:5">
+    <row r="392" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A392" s="8"/>
       <c r="B392" s="1">
         <v>10100005</v>
@@ -11141,7 +10589,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="393" ht="17.25" spans="1:5">
+    <row r="393" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A393" s="8"/>
       <c r="B393" s="1">
         <v>10100006</v>
@@ -11156,7 +10604,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="394" ht="17.25" spans="1:5">
+    <row r="394" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A394" s="8"/>
       <c r="B394" s="1">
         <v>10100007</v>
@@ -11171,7 +10619,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="395" ht="17.25" spans="1:5">
+    <row r="395" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A395" s="8"/>
       <c r="B395" s="1">
         <v>10100008</v>
@@ -11186,7 +10634,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="396" ht="17.25" spans="1:5">
+    <row r="396" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A396" s="8"/>
       <c r="B396" s="1">
         <v>10100009</v>
@@ -11201,7 +10649,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="397" ht="17.25" spans="1:5">
+    <row r="397" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A397" s="8"/>
       <c r="B397" s="1">
         <v>10110001</v>
@@ -11216,7 +10664,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="398" ht="17.25" spans="1:5">
+    <row r="398" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A398" s="8"/>
       <c r="B398" s="1">
         <v>10110002</v>
@@ -11231,7 +10679,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="399" ht="17.25" spans="1:5">
+    <row r="399" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A399" s="8"/>
       <c r="B399" s="1">
         <v>10110003</v>
@@ -11246,7 +10694,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="400" ht="17.25" spans="1:5">
+    <row r="400" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A400" s="8"/>
       <c r="B400" s="1">
         <v>10110004</v>
@@ -11261,7 +10709,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="401" ht="17.25" spans="1:5">
+    <row r="401" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A401" s="8"/>
       <c r="B401" s="1">
         <v>10110005</v>
@@ -11276,7 +10724,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="402" ht="17.25" spans="1:5">
+    <row r="402" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A402" s="8"/>
       <c r="B402" s="1">
         <v>10110006</v>
@@ -11291,7 +10739,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="403" ht="17.25" spans="1:5">
+    <row r="403" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A403" s="8"/>
       <c r="B403" s="1">
         <v>10110007</v>
@@ -11306,7 +10754,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="404" ht="17.25" spans="1:5">
+    <row r="404" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A404" s="8"/>
       <c r="B404" s="1">
         <v>10110008</v>
@@ -11321,7 +10769,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="405" ht="17.25" spans="1:5">
+    <row r="405" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A405" s="8"/>
       <c r="B405" s="1">
         <v>10110009</v>
@@ -11336,7 +10784,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="406" ht="17.25" spans="1:5">
+    <row r="406" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A406" s="8"/>
       <c r="B406" s="1">
         <v>10110010</v>
@@ -11351,7 +10799,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="407" ht="17.25" spans="1:5">
+    <row r="407" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A407" s="8"/>
       <c r="B407" s="1">
         <v>10110011</v>
@@ -11366,7 +10814,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="408" ht="17.25" spans="1:5">
+    <row r="408" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A408" s="8"/>
       <c r="B408" s="1">
         <v>10110012</v>
@@ -11381,7 +10829,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="409" ht="17.25" spans="1:5">
+    <row r="409" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A409" s="8"/>
       <c r="B409" s="1">
         <v>10110013</v>
@@ -11396,7 +10844,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="410" ht="17.25" spans="1:5">
+    <row r="410" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A410" s="8"/>
       <c r="B410" s="1">
         <v>10110014</v>
@@ -11411,7 +10859,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="411" ht="17.25" spans="1:5">
+    <row r="411" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A411" s="8"/>
       <c r="B411" s="1">
         <v>10110015</v>
@@ -11426,7 +10874,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="412" ht="17.25" spans="1:5">
+    <row r="412" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A412" s="8"/>
       <c r="B412" s="1">
         <v>10110016</v>
@@ -11441,7 +10889,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="413" ht="17.25" spans="1:5">
+    <row r="413" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A413" s="8"/>
       <c r="B413" s="1">
         <v>10110017</v>
@@ -11456,7 +10904,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="414" ht="17.25" spans="1:5">
+    <row r="414" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A414" s="8"/>
       <c r="B414" s="1">
         <v>10110018</v>
@@ -11471,7 +10919,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="415" ht="17.25" spans="1:5">
+    <row r="415" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A415" s="8"/>
       <c r="B415" s="1">
         <v>10110019</v>
@@ -11486,7 +10934,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="416" ht="17.25" spans="1:5">
+    <row r="416" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A416" s="8"/>
       <c r="B416" s="1">
         <v>10110020</v>
@@ -11501,7 +10949,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="417" ht="17.25" spans="1:5">
+    <row r="417" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A417" s="8"/>
       <c r="B417" s="1">
         <v>10110023</v>
@@ -11516,7 +10964,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="418" ht="17.25" spans="1:5">
+    <row r="418" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A418" s="8"/>
       <c r="B418" s="1">
         <v>10110024</v>
@@ -11531,7 +10979,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="419" ht="17.25" spans="1:5">
+    <row r="419" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A419" s="8"/>
       <c r="B419" s="1">
         <v>10110025</v>
@@ -11546,7 +10994,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="420" ht="17.25" spans="1:5">
+    <row r="420" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A420" s="8"/>
       <c r="B420" s="1">
         <v>10110026</v>
@@ -11561,7 +11009,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="421" ht="17.25" spans="1:5">
+    <row r="421" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A421" s="8"/>
       <c r="B421" s="1">
         <v>10110027</v>
@@ -11576,7 +11024,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="422" ht="17.25" spans="1:5">
+    <row r="422" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A422" s="8"/>
       <c r="B422" s="1">
         <v>10120001</v>
@@ -11591,7 +11039,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="423" ht="17.25" spans="1:5">
+    <row r="423" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A423" s="8"/>
       <c r="B423" s="1">
         <v>10120002</v>
@@ -11606,7 +11054,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="424" ht="17.25" spans="1:5">
+    <row r="424" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A424" s="8"/>
       <c r="B424" s="1">
         <v>10120003</v>
@@ -11621,7 +11069,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="425" ht="17.25" spans="1:5">
+    <row r="425" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A425" s="8"/>
       <c r="B425" s="1">
         <v>10120004</v>
@@ -11636,7 +11084,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="426" ht="17.25" spans="1:5">
+    <row r="426" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A426" s="8"/>
       <c r="B426" s="1">
         <v>10120005</v>
@@ -11651,7 +11099,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="427" ht="17.25" spans="1:5">
+    <row r="427" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A427" s="8"/>
       <c r="B427" s="1">
         <v>10120006</v>
@@ -11666,7 +11114,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="428" ht="17.25" spans="1:5">
+    <row r="428" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A428" s="8"/>
       <c r="B428" s="1">
         <v>10120007</v>
@@ -11681,7 +11129,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="429" ht="17.25" spans="1:5">
+    <row r="429" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A429" s="8"/>
       <c r="B429" s="1">
         <v>10120008</v>
@@ -11696,7 +11144,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="430" ht="17.25" spans="1:5">
+    <row r="430" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A430" s="8"/>
       <c r="B430" s="1">
         <v>10130001</v>
@@ -11711,7 +11159,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="431" ht="17.25" spans="1:5">
+    <row r="431" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A431" s="8"/>
       <c r="B431" s="1">
         <v>10130002</v>
@@ -11726,7 +11174,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="432" ht="17.25" spans="1:5">
+    <row r="432" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A432" s="8"/>
       <c r="B432" s="1">
         <v>10130003</v>
@@ -11741,7 +11189,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="433" ht="17.25" spans="1:5">
+    <row r="433" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A433" s="8"/>
       <c r="B433" s="1">
         <v>10130004</v>
@@ -11756,7 +11204,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="434" ht="17.25" spans="1:5">
+    <row r="434" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A434" s="8"/>
       <c r="B434" s="1">
         <v>10130005</v>
@@ -11771,7 +11219,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="435" ht="17.25" spans="1:5">
+    <row r="435" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A435" s="8"/>
       <c r="B435" s="1">
         <v>10140001</v>
@@ -11786,7 +11234,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="436" ht="17.25" spans="1:5">
+    <row r="436" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A436" s="8"/>
       <c r="B436" s="1">
         <v>10140002</v>
@@ -11801,7 +11249,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="437" ht="17.25" spans="1:5">
+    <row r="437" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A437" s="8"/>
       <c r="B437" s="1">
         <v>10140003</v>
@@ -11816,7 +11264,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="438" ht="17.25" spans="1:5">
+    <row r="438" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A438" s="8"/>
       <c r="B438" s="1">
         <v>10140004</v>
@@ -11831,7 +11279,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="439" ht="17.25" spans="1:5">
+    <row r="439" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A439" s="8"/>
       <c r="B439" s="1">
         <v>10140005</v>
@@ -11846,7 +11294,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="440" ht="17.25" spans="1:5">
+    <row r="440" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A440" s="8"/>
       <c r="B440" s="1">
         <v>10140006</v>
@@ -11861,7 +11309,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="441" ht="17.25" spans="1:5">
+    <row r="441" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A441" s="8"/>
       <c r="B441" s="1">
         <v>10150001</v>
@@ -11876,7 +11324,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="442" ht="17.25" spans="1:5">
+    <row r="442" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A442" s="8"/>
       <c r="B442" s="1">
         <v>10150002</v>
@@ -11891,7 +11339,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="443" ht="17.25" spans="1:5">
+    <row r="443" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A443" s="8"/>
       <c r="B443" s="1">
         <v>10150003</v>
@@ -11906,7 +11354,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="444" ht="17.25" spans="1:5">
+    <row r="444" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A444" s="8"/>
       <c r="B444" s="1">
         <v>10150004</v>
@@ -11921,7 +11369,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="445" ht="17.25" spans="1:5">
+    <row r="445" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A445" s="8"/>
       <c r="B445" s="1">
         <v>10150005</v>
@@ -11936,7 +11384,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="446" ht="17.25" spans="2:5">
+    <row r="446" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B446" s="1">
         <v>1016001</v>
       </c>
@@ -11950,7 +11398,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="447" ht="17.25" spans="2:5">
+    <row r="447" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B447" s="1">
         <v>1016002</v>
       </c>
@@ -11964,7 +11412,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="448" ht="17.25" spans="2:5">
+    <row r="448" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B448" s="1">
         <v>1016003</v>
       </c>
@@ -11978,7 +11426,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="449" ht="17.25" spans="2:5">
+    <row r="449" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B449" s="1">
         <v>1016004</v>
       </c>
@@ -11992,7 +11440,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="450" ht="17.25" spans="2:5">
+    <row r="450" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B450" s="1">
         <v>1016005</v>
       </c>
@@ -12006,7 +11454,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="451" ht="17.25" spans="2:5">
+    <row r="451" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B451" s="1">
         <v>1016006</v>
       </c>
@@ -12020,7 +11468,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="452" ht="17.25" spans="2:5">
+    <row r="452" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B452" s="1">
         <v>1016007</v>
       </c>
@@ -12034,7 +11482,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="453" ht="17.25" spans="2:5">
+    <row r="453" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B453" s="1">
         <v>1016008</v>
       </c>
@@ -12048,7 +11496,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="454" ht="17.25" spans="2:5">
+    <row r="454" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B454" s="1">
         <v>1017001</v>
       </c>
@@ -12062,7 +11510,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="455" ht="17.25" spans="2:5">
+    <row r="455" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B455" s="1">
         <v>1017002</v>
       </c>
@@ -12076,7 +11524,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="456" ht="17.25" spans="2:5">
+    <row r="456" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B456" s="1">
         <v>1017003</v>
       </c>
@@ -12090,7 +11538,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="457" ht="17.25" spans="2:5">
+    <row r="457" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B457" s="1">
         <v>1017008</v>
       </c>
@@ -12104,7 +11552,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="458" ht="17.25" spans="2:5">
+    <row r="458" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B458" s="1">
         <v>1017009</v>
       </c>
@@ -12118,7 +11566,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="459" ht="17.25" spans="2:5">
+    <row r="459" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B459" s="1">
         <v>1017010</v>
       </c>
@@ -12132,7 +11580,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="460" ht="17.25" spans="2:5">
+    <row r="460" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B460" s="1">
         <v>1017011</v>
       </c>
@@ -12146,7 +11594,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="461" ht="17.25" spans="2:5">
+    <row r="461" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B461" s="1">
         <v>1017012</v>
       </c>
@@ -12160,7 +11608,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="462" ht="17.25" spans="2:5">
+    <row r="462" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B462" s="1">
         <v>1017013</v>
       </c>
@@ -12174,7 +11622,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="463" ht="17.25" spans="2:5">
+    <row r="463" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B463" s="1">
         <v>1017014</v>
       </c>
@@ -12188,7 +11636,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="464" ht="17.25" spans="2:5">
+    <row r="464" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B464" s="1">
         <v>1017015</v>
       </c>
@@ -12202,7 +11650,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="465" ht="17.25" spans="2:5">
+    <row r="465" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B465" s="1">
         <v>1017016</v>
       </c>
@@ -12216,7 +11664,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="466" ht="17.25" spans="2:5">
+    <row r="466" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B466" s="1">
         <v>1017017</v>
       </c>
@@ -12230,7 +11678,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="467" ht="17.25" spans="2:5">
+    <row r="467" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B467" s="1">
         <v>1017018</v>
       </c>
@@ -12244,7 +11692,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="468" ht="17.25" spans="2:5">
+    <row r="468" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B468" s="1">
         <v>1017019</v>
       </c>
@@ -12258,7 +11706,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="469" ht="17.25" spans="2:5">
+    <row r="469" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B469" s="1">
         <v>1017020</v>
       </c>
@@ -12272,7 +11720,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="470" ht="17.25" spans="2:5">
+    <row r="470" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B470" s="1">
         <v>1017021</v>
       </c>
@@ -12286,7 +11734,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="471" ht="17.25" spans="2:5">
+    <row r="471" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B471" s="1">
         <v>1017022</v>
       </c>
@@ -12300,7 +11748,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="472" ht="17.25" spans="2:5">
+    <row r="472" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B472" s="1">
         <v>1017023</v>
       </c>
@@ -12314,7 +11762,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="473" ht="34.5" spans="2:5">
+    <row r="473" spans="2:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="B473" s="1">
         <v>1017024</v>
       </c>
@@ -12328,7 +11776,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="474" ht="17.25" spans="2:5">
+    <row r="474" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B474" s="1">
         <v>1017025</v>
       </c>
@@ -12342,96 +11790,96 @@
         <v>957</v>
       </c>
     </row>
-    <row r="475" ht="17.25" spans="2:5">
+    <row r="475" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B475" s="1">
         <v>1017026</v>
       </c>
-      <c r="C475" s="2" t="s">
-        <v>958</v>
+      <c r="C475" s="10" t="s">
+        <v>1293</v>
       </c>
       <c r="D475" s="1" t="s">
         <v>918</v>
       </c>
       <c r="E475" s="7" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="476" ht="17.25" spans="2:5">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="476" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B476" s="1">
         <v>1017027</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D476" s="1" t="s">
         <v>918</v>
       </c>
       <c r="E476" s="7" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="477" ht="17.25" spans="2:5">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="477" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B477" s="1">
         <v>1017028</v>
       </c>
-      <c r="C477" s="2" t="s">
-        <v>962</v>
+      <c r="C477" s="10" t="s">
+        <v>1294</v>
       </c>
       <c r="D477" s="1" t="s">
         <v>918</v>
       </c>
       <c r="E477" s="7" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="478" ht="17.25" spans="2:5">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="478" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B478" s="1">
         <v>1017029</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="D478" s="1" t="s">
         <v>902</v>
       </c>
       <c r="E478" s="7" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="479" ht="17.25" spans="2:5">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="479" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B479" s="1">
         <v>1017030</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="D479" s="1" t="s">
         <v>918</v>
       </c>
       <c r="E479" s="7" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="480" ht="17.25" spans="2:5">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="480" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B480" s="1">
         <v>1017031</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="D480" s="1" t="s">
         <v>918</v>
       </c>
       <c r="E480" s="7" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="481" ht="17.25" spans="2:5">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="481" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B481" s="1">
         <v>1017032</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="D481" s="1" t="s">
         <v>918</v>
@@ -12440,166 +11888,166 @@
         <v>94</v>
       </c>
     </row>
-    <row r="482" ht="17.25" spans="2:5">
+    <row r="482" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B482" s="1">
         <v>1017033</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="D482" s="1" t="s">
         <v>918</v>
       </c>
       <c r="E482" s="7" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="483" ht="17.25" spans="2:5">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="483" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B483" s="1">
         <v>1017034</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="D483" s="1" t="s">
         <v>918</v>
       </c>
       <c r="E483" s="7" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="484" ht="17.25" spans="2:5">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="484" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B484" s="1">
         <v>1017035</v>
       </c>
-      <c r="C484" s="2" t="s">
-        <v>975</v>
+      <c r="C484" s="10" t="s">
+        <v>1292</v>
       </c>
       <c r="D484" s="1" t="s">
         <v>918</v>
       </c>
       <c r="E484" s="7" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="485" ht="17.25" spans="2:5">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="485" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B485" s="1">
         <v>1017036</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="D485" s="1" t="s">
         <v>918</v>
       </c>
       <c r="E485" s="7" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="486" ht="17.25" spans="2:5">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="486" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B486" s="1">
         <v>1017037</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="D486" s="1" t="s">
         <v>918</v>
       </c>
       <c r="E486" s="7" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="487" ht="17.25" spans="2:5">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="487" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B487" s="1">
         <v>1017038</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="D487" s="1" t="s">
         <v>918</v>
       </c>
       <c r="E487" s="7" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="488" ht="17.25" spans="2:5">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="488" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B488" s="1">
         <v>1017039</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="D488" s="1" t="s">
         <v>918</v>
       </c>
       <c r="E488" s="7" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="489" ht="17.25" spans="2:5">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="489" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B489" s="1">
         <v>1017040</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D489" s="1" t="s">
         <v>918</v>
       </c>
       <c r="E489" s="7" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="490" ht="17.25" spans="2:5">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="490" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B490" s="1">
         <v>1018001</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="E490" s="7" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="491" ht="17.25" spans="2:5">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="491" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B491" s="1">
         <v>1018002</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="E491" s="7" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="492" ht="17.25" spans="2:5">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="492" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B492" s="1">
         <v>1018003</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="E492" s="7" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="493" ht="17.25" spans="2:5">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="493" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B493" s="1">
         <v>1019001</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="D493" s="1" t="s">
         <v>803</v>
@@ -12608,946 +12056,946 @@
         <v>923</v>
       </c>
     </row>
-    <row r="494" ht="17.25" spans="2:5">
+    <row r="494" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B494" s="1">
         <v>1020001</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="E494" s="7" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="495" ht="17.25" spans="2:5">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="495" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B495" s="1">
         <v>1020002</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="E495" s="7" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="496" ht="17.25" spans="2:5">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="496" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B496" s="1">
         <v>1020003</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="E496" s="7" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="497" ht="17.25" spans="2:5">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="497" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B497" s="1">
         <v>1020004</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="E497" s="7" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="498" ht="17.25" spans="2:5">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="498" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B498" s="1">
         <v>1020005</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="E498" s="7" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="499" ht="17.25" spans="2:5">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="499" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B499" s="1">
         <v>1020006</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="E499" s="7" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="500" ht="17.25" spans="2:5">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="500" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B500" s="1">
         <v>1020007</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="E500" s="7" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="501" ht="17.25" spans="2:5">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="501" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B501" s="1">
         <v>1020008</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="E501" s="7" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="502" ht="17.25" spans="2:5">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="502" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B502" s="1">
         <v>1020009</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="E502" s="7" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="503" ht="17.25" spans="2:5">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="503" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B503" s="1">
         <v>1020010</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="E503" s="7" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="504" ht="17.25" spans="2:5">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="504" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B504" s="1">
         <v>1020011</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="E504" s="7" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="505" ht="17.25" spans="2:5">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="505" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B505" s="1">
         <v>1020012</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="E505" s="7" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="506" ht="17.25" spans="2:5">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="506" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B506" s="1">
         <v>1020013</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="E506" s="7" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="507" ht="17.25" spans="2:5">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="507" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B507" s="1">
         <v>10210001</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="D507" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E507" s="7" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="508" ht="17.25" spans="2:5">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="508" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B508" s="1">
         <v>10210002</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="D508" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E508" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="509" ht="17.25" spans="2:5">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="509" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B509" s="1">
         <v>10210003</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="D509" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E509" s="7" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="510" ht="17.25" spans="2:5">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="510" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B510" s="1">
         <v>10210004</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="D510" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E510" s="7" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="511" ht="17.25" spans="2:5">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="511" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B511" s="1">
         <v>10210005</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="D511" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E511" s="7" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="512" ht="17.25" spans="2:5">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="512" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B512" s="1">
         <v>10210006</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="D512" s="1" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="E512" s="7" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="513" ht="17.25" spans="2:5">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="513" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B513" s="1">
         <v>10210007</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="E513" s="7" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="514" ht="17.25" spans="2:5">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="514" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B514" s="1">
         <v>10210008</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="E514" s="7" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="515" ht="17.25" spans="2:5">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="515" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B515" s="1">
         <v>10210009</v>
       </c>
       <c r="C515" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="D515" s="1" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E515" s="7" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="516" ht="17.25" spans="2:5">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="516" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B516" s="1">
         <v>10210010</v>
       </c>
       <c r="C516" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="D516" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E516" s="7" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="517" ht="17.25" spans="2:5">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="517" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B517" s="1">
         <v>10210011</v>
       </c>
       <c r="C517" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="D517" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E517" s="7" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="518" ht="17.25" spans="2:5">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="518" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B518" s="1">
         <v>10210012</v>
       </c>
       <c r="C518" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="D518" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E518" s="7" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="519" ht="17.25" spans="2:5">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="519" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B519" s="1">
         <v>10220001</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="D519" s="1" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="E519" s="7" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="520" ht="17.25" spans="2:5">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="520" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B520" s="1">
         <v>10220002</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="D520" s="1" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="E520" s="7" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="521" ht="17.25" spans="2:5">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="521" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B521" s="1">
         <v>10220003</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="D521" s="1" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="E521" s="7" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="522" ht="17.25" spans="2:5">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="522" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B522" s="1">
         <v>10220004</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E522" s="7" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="523" ht="17.25" spans="2:5">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="523" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B523" s="1">
         <v>10220005</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="D523" s="1" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E523" s="7" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="524" ht="17.25" spans="2:5">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="524" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B524" s="1">
         <v>10230001</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="D524" s="1" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="E524" s="7" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="525" ht="17.25" spans="2:5">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="525" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B525" s="1">
         <v>10230002</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="D525" s="1" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="E525" s="7" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="526" ht="17.25" spans="2:5">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="526" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B526" s="1">
         <v>10230003</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="E526" s="7" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="527" ht="17.25" spans="2:5">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="527" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B527" s="1">
         <v>10230004</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="D527" s="1" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="E527" s="7" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="528" ht="17.25" spans="2:5">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="528" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B528" s="1">
         <v>10230005</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="E528" s="7" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="529" ht="17.25" spans="2:5">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="529" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B529" s="1">
         <v>10230006</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="D529" s="1" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="E529" s="7" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="530" ht="17.25" spans="2:5">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="530" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B530" s="1">
         <v>10230007</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="D530" s="1" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="E530" s="7" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="531" ht="17.25" spans="2:5">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="531" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B531" s="1">
         <v>10230008</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="D531" s="1" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="E531" s="7" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="532" ht="17.25" spans="2:5">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="532" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B532" s="1">
         <v>10230009</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="D532" s="1" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="E532" s="7" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="533" ht="17.25" spans="2:5">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="533" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B533" s="1">
         <v>10230010</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="E533" s="7" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="534" ht="17.25" spans="2:5">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="534" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B534" s="1">
         <v>10230011</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="E534" s="7" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="535" ht="17.25" spans="2:5">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="535" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B535" s="1">
         <v>10240001</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="D535" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E535" s="7" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="536" ht="17.25" spans="2:5">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="536" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B536" s="1">
         <v>10250001</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D536" s="1" t="s">
         <v>796</v>
       </c>
       <c r="E536" s="7" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="537" ht="17.25" spans="2:5">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="537" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B537" s="1">
         <v>10250002</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="D537" s="1" t="s">
         <v>796</v>
       </c>
       <c r="E537" s="7" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="538" ht="17.25" spans="2:5">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="538" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B538" s="1">
         <v>10250003</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="D538" s="1" t="s">
         <v>796</v>
       </c>
       <c r="E538" s="7" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="539" ht="17.25" spans="2:5">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="539" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B539" s="1">
         <v>10250004</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="D539" s="1" t="s">
         <v>796</v>
       </c>
       <c r="E539" s="7" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="540" ht="17.25" spans="2:5">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="540" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B540" s="1">
         <v>10250005</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="D540" s="1" t="s">
         <v>796</v>
       </c>
       <c r="E540" s="7" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="541" ht="17.25" spans="2:5">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="541" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B541" s="1">
         <v>10250006</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="D541" s="1" t="s">
         <v>796</v>
       </c>
       <c r="E541" s="7" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="542" ht="17.25" spans="2:5">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="542" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B542" s="1">
         <v>10250007</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="D542" s="1" t="s">
         <v>796</v>
       </c>
       <c r="E542" s="7" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="543" ht="17.25" spans="2:5">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="543" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B543" s="1">
         <v>10250008</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="D543" s="1" t="s">
         <v>796</v>
       </c>
       <c r="E543" s="7" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="544" ht="17.25" spans="2:5">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="544" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B544" s="1">
         <v>10250009</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="D544" s="1" t="s">
         <v>796</v>
       </c>
       <c r="E544" s="7" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="545" ht="17.25" spans="2:5">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B545" s="1">
         <v>10250010</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="D545" s="1" t="s">
         <v>796</v>
       </c>
       <c r="E545" s="7" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="546" ht="17.25" spans="2:5">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B546" s="1">
         <v>10250011</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="D546" s="1" t="s">
         <v>796</v>
       </c>
       <c r="E546" s="7" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="547" ht="17.25" spans="2:5">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B547" s="1">
         <v>10250012</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="D547" s="1" t="s">
         <v>796</v>
       </c>
       <c r="E547" s="7" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="548" ht="17.25" spans="2:5">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B548" s="1">
         <v>10250013</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="D548" s="1" t="s">
         <v>796</v>
       </c>
       <c r="E548" s="7" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="549" ht="17.25" spans="2:5">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B549" s="1">
         <v>10250014</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="D549" s="1" t="s">
         <v>796</v>
       </c>
       <c r="E549" s="7" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="550" ht="17.25" spans="1:5">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A550" s="1"/>
       <c r="B550" s="1">
         <v>10250015</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="D550" s="1" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="E550" s="7" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="551" ht="17.25" spans="2:5">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B551" s="1">
         <v>10250016</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="E551" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="552" ht="17.25" spans="2:5">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B552" s="1">
         <v>10250017</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="D552" s="1" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="E552" s="7" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="553" ht="17.25" spans="2:5">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B553" s="1">
         <v>10250018</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="E553" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="554" ht="17.25" spans="2:5">
+    <row r="554" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B554" s="1">
         <v>10260001</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="E554" s="7" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="555" ht="51.75" spans="2:5">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" ht="51.75" x14ac:dyDescent="0.15">
       <c r="B555" s="1">
         <v>10260002</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="D555" s="1" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="E555" s="7" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="556" ht="17.25" spans="2:5">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B556" s="1">
         <v>10260003</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="E556" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="557" ht="51.75" spans="2:5">
+    <row r="557" spans="1:5" ht="51.75" x14ac:dyDescent="0.15">
       <c r="B557" s="1">
         <v>10260004</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="D557" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E557" s="7" t="s">
         <v>1117</v>
       </c>
-      <c r="E557" s="7" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="558" ht="51.75" spans="2:5">
+    </row>
+    <row r="558" spans="1:5" ht="51.75" x14ac:dyDescent="0.15">
       <c r="B558" s="1">
         <v>10260005</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D558" s="1" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="E558" s="7" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="559" ht="51.75" spans="2:5">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" ht="51.75" x14ac:dyDescent="0.15">
       <c r="B559" s="1">
         <v>10260006</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="D559" s="1" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="E559" s="7" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="560" ht="51.75" spans="2:5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" ht="51.75" x14ac:dyDescent="0.15">
       <c r="B560" s="1">
         <v>10260007</v>
       </c>
       <c r="C560" s="2" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="D560" s="1" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="E560" s="7" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="561" ht="17.25" spans="2:5">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="561" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B561" s="1">
         <v>10260008</v>
       </c>
@@ -13555,335 +13003,335 @@
         <v>69</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="E561" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="562" ht="51.75" spans="2:5">
+    <row r="562" spans="2:5" ht="51.75" x14ac:dyDescent="0.15">
       <c r="B562" s="1">
         <v>10260009</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="D562" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E562" s="7" t="s">
         <v>1117</v>
       </c>
-      <c r="E562" s="7" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="563" ht="51.75" spans="2:5">
+    </row>
+    <row r="563" spans="2:5" ht="51.75" x14ac:dyDescent="0.15">
       <c r="B563" s="1">
         <v>10260010</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D563" s="1" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="E563" s="7" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="564" ht="51.75" spans="2:5">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="564" spans="2:5" ht="51.75" x14ac:dyDescent="0.15">
       <c r="B564" s="1">
         <v>10260011</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="E564" s="7" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="565" ht="51.75" spans="2:5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="565" spans="2:5" ht="51.75" x14ac:dyDescent="0.15">
       <c r="B565" s="1">
         <v>10260012</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="E565" s="7" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="566" ht="17.25" spans="2:5">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="566" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B566" s="1">
         <v>10270001</v>
       </c>
       <c r="C566" s="2" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="D566" s="1" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="E566" s="7" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="567" ht="17.25" spans="2:5">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="567" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B567" s="1">
         <v>10270002</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="D567" s="1" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="E567" s="7" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="568" ht="17.25" spans="2:5">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="568" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B568" s="1">
         <v>10270003</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="D568" s="1" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="E568" s="7" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="569" ht="17.25" spans="2:5">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="569" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B569" s="1">
         <v>10270004</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="D569" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E569" s="7" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="570" ht="17.25" spans="2:5">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="570" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B570" s="1">
         <v>10270005</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="D570" s="1" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="E570" s="7" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="571" ht="17.25" spans="2:5">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="571" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B571" s="1">
         <v>10270006</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="E571" s="7" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="572" ht="17.25" spans="2:5">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="572" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B572" s="1">
         <v>10270007</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="D572" s="1" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="E572" s="7" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="573" ht="17.25" spans="2:5">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="573" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B573" s="1">
         <v>10280001</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="D573" s="1" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="E573" s="7" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="574" ht="17.25" spans="2:5">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="574" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B574" s="1">
         <v>10280002</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="E574" s="7" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="575" ht="17.25" spans="2:5">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="575" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B575" s="1">
         <v>10280003</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="E575" s="7" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="576" ht="17.25" spans="2:5">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="576" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B576" s="1">
         <v>10280004</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="D576" s="1" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="E576" s="7" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="577" ht="17.25" spans="2:5">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="577" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B577" s="1">
         <v>10280005</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="D577" s="1" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="E577" s="7" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="578" ht="17.25" spans="2:5">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="578" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B578" s="1">
         <v>10280006</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="D578" s="1" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="E578" s="7" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="579" ht="17.25" spans="2:5">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="579" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B579" s="1">
         <v>10280007</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="D579" s="1" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="E579" s="7" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="580" ht="17.25" spans="2:5">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="580" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B580" s="1">
         <v>10280008</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="D580" s="1" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="E580" s="7" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="581" ht="17.25" spans="2:5">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="581" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B581" s="1">
         <v>10280009</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="D581" s="1" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="E581" s="7" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="582" ht="17.25" spans="2:5">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="582" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B582" s="1">
         <v>10280010</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="D582" s="1" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="E582" s="7" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="583" ht="17.25" spans="2:5">
+    <row r="583" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B583" s="1">
         <v>10280011</v>
       </c>
       <c r="C583" s="2" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="D583" s="1" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="E583" s="7" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="584" ht="17.25" spans="2:5">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="584" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B584" s="1">
         <v>10280012</v>
       </c>
       <c r="C584" s="2" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="D584" s="1" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="E584" s="7" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="585" ht="17.25" spans="2:5">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="585" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B585" s="1">
         <v>10280013</v>
       </c>
@@ -13891,69 +13339,69 @@
         <v>63</v>
       </c>
       <c r="D585" s="1" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="E585" s="7" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="586" ht="34.5" spans="2:5">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="586" spans="2:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="B586" s="1">
         <v>10280014</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="E586" s="7" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="587" ht="34.5" spans="2:5">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="587" spans="2:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="B587" s="1">
         <v>10280015</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="D587" s="1" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="E587" s="7" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="588" ht="17.25" spans="2:5">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="588" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B588" s="1">
         <v>10280016</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="D588" s="1" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="E588" s="7" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="589" ht="17.25" spans="2:5">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="589" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B589" s="1">
         <v>10280017</v>
       </c>
       <c r="C589" s="2" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="D589" s="1" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="E589" s="7" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="590" ht="17.25" spans="2:5">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="590" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B590" s="1">
         <v>10280018</v>
       </c>
@@ -13961,223 +13409,223 @@
         <v>739</v>
       </c>
       <c r="D590" s="1" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="E590" s="7" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="591" ht="17.25" spans="2:5">
+    <row r="591" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B591" s="1">
         <v>10290001</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="D591" s="1" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="E591" s="7" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="592" ht="17.25" spans="2:5">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="592" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B592" s="1">
         <v>10290002</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="D592" s="1" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="E592" s="7" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="593" ht="17.25" spans="2:5">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="593" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B593" s="1">
         <v>10290003</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="D593" s="1" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="E593" s="7" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="594" ht="17.25" spans="2:5">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="594" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B594" s="1">
         <v>10290004</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="D594" s="1" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="E594" s="7" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="595" ht="17.25" spans="2:5">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="595" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B595" s="1">
         <v>10290005</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="D595" s="1" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="E595" s="7" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="596" ht="17.25" spans="2:5">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="596" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B596" s="1">
         <v>10290006</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="D596" s="1" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="E596" s="7" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="597" ht="17.25" spans="2:5">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="597" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B597" s="1">
         <v>10290007</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="D597" s="1" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="E597" s="7" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="598" ht="17.25" spans="2:5">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="598" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B598" s="1">
         <v>10290008</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="D598" s="1" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="E598" s="7" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="599" ht="17.25" spans="2:5">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="599" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B599" s="1">
         <v>10290009</v>
       </c>
       <c r="C599" s="2" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="D599" s="1" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="E599" s="7" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="600" ht="17.25" spans="2:5">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="600" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B600" s="1">
         <v>10290010</v>
       </c>
       <c r="C600" s="2" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D600" s="1" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="E600" s="7" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="601" ht="17.25" spans="2:5">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="601" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B601" s="1">
         <v>10290011</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="D601" s="1" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="E601" s="7" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="602" ht="17.25" spans="2:5">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="602" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B602" s="1">
         <v>10290012</v>
       </c>
       <c r="C602" s="2" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="D602" s="1" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="E602" s="7" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="603" ht="17.25" spans="2:5">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="603" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B603" s="1">
         <v>10290013</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="D603" s="1" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="E603" s="7" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="604" ht="17.25" spans="2:5">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="604" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B604" s="1">
         <v>10290014</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="D604" s="1" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="E604" s="7" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="605" ht="17.25" spans="2:5">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="605" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B605" s="1">
         <v>10290015</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="D605" s="1" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="E605" s="7" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="606" ht="17.25" spans="2:5">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="606" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B606" s="1">
         <v>10290016</v>
       </c>
@@ -14185,195 +13633,195 @@
         <v>848</v>
       </c>
       <c r="D606" s="1" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="E606" s="7" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="607" ht="17.25" spans="2:5">
+    <row r="607" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B607" s="1">
         <v>10290017</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="D607" s="1" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="E607" s="7" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="608" ht="17.25" spans="2:5">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="608" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B608" s="1">
         <v>10290018</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="D608" s="1" t="s">
         <v>803</v>
       </c>
       <c r="E608" s="7" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="609" ht="17.25" spans="2:5">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="609" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B609" s="1">
         <v>10290019</v>
       </c>
       <c r="C609" s="2" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="D609" s="1" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="E609" s="7" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="610" ht="17.25" spans="2:5">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="610" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B610" s="1">
         <v>10290020</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="D610" s="1" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="E610" s="7" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="611" ht="34.5" spans="2:5">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="611" spans="2:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="B611" s="1">
         <v>10300001</v>
       </c>
       <c r="C611" s="2" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="D611" s="1" t="s">
         <v>902</v>
       </c>
       <c r="E611" s="7" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="612" ht="34.5" spans="2:5">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="612" spans="2:5" ht="34.5" x14ac:dyDescent="0.15">
       <c r="B612" s="1">
         <v>10300002</v>
       </c>
       <c r="C612" s="2" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="D612" s="1" t="s">
         <v>902</v>
       </c>
       <c r="E612" s="7" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="613" ht="17.25" spans="2:5">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="613" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B613" s="1">
         <v>10300003</v>
       </c>
       <c r="C613" s="2" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="D613" s="1" t="s">
         <v>902</v>
       </c>
       <c r="E613" s="7" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="614" ht="17.25" spans="2:5">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="614" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B614" s="1">
         <v>10300004</v>
       </c>
       <c r="C614" s="2" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="D614" s="1" t="s">
         <v>902</v>
       </c>
       <c r="E614" s="7" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="615" ht="17.25" spans="2:5">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="615" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B615" s="1">
         <v>10300005</v>
       </c>
       <c r="C615" s="2" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="D615" s="1" t="s">
         <v>902</v>
       </c>
       <c r="E615" s="7" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="616" ht="17.25" spans="2:5">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="616" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B616" s="1">
         <v>10300006</v>
       </c>
       <c r="C616" s="2" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="D616" s="1" t="s">
         <v>902</v>
       </c>
       <c r="E616" s="7" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="617" ht="17.25" spans="2:5">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="617" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B617" s="1">
         <v>10300007</v>
       </c>
       <c r="C617" s="2" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="D617" s="1" t="s">
         <v>902</v>
       </c>
       <c r="E617" s="7" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="618" ht="17.25" spans="2:5">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="618" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B618" s="9">
         <v>20002</v>
       </c>
       <c r="C618" s="2" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="D618" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E618" s="7" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="619" ht="17.25" spans="2:5">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="619" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B619" s="9">
         <v>20003</v>
       </c>
       <c r="C619" s="2" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="D619" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E619" s="7" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="620" ht="17.25" spans="2:5">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="620" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B620" s="9">
         <v>20004</v>
       </c>
@@ -14381,439 +13829,436 @@
         <v>739</v>
       </c>
       <c r="D620" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E620" s="7" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="621" ht="17.25" spans="2:5">
+    <row r="621" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B621" s="9">
         <v>20005</v>
       </c>
       <c r="C621" s="2" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="D621" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E621" s="7" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="622" ht="17.25" spans="2:5">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="622" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B622" s="9">
         <v>20006</v>
       </c>
       <c r="C622" s="2" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="D622" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E622" s="7" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="623" ht="17.25" spans="2:5">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="623" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B623" s="9">
         <v>20007</v>
       </c>
       <c r="C623" s="2" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="D623" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E623" s="7" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="624" ht="17.25" spans="2:5">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="624" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B624" s="9">
         <v>20008</v>
       </c>
       <c r="C624" s="2" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="D624" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E624" s="7" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="625" ht="17.25" spans="2:5">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="625" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B625" s="9">
         <v>20009</v>
       </c>
       <c r="C625" s="2" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="D625" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E625" s="7" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="626" ht="17.25" spans="2:5">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="626" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B626" s="9">
         <v>20010</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="D626" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E626" s="7" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="627" ht="17.25" spans="2:5">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="627" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B627" s="9">
         <v>20011</v>
       </c>
       <c r="C627" s="2" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="D627" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E627" s="7" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="628" ht="17.25" spans="2:5">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="628" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B628" s="9">
         <v>20012</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="D628" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E628" s="7" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="629" ht="17.25" spans="2:5">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="629" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B629" s="9">
         <v>20013</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="D629" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E629" s="7" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="630" ht="17.25" spans="2:5">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="630" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B630" s="9">
         <v>20014</v>
       </c>
       <c r="C630" s="2" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="D630" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E630" s="7" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="631" ht="17.25" spans="2:5">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="631" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B631" s="9">
         <v>20015</v>
       </c>
       <c r="C631" s="2" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="D631" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E631" s="7" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="632" ht="17.25" spans="2:5">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="632" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B632" s="9">
         <v>20016</v>
       </c>
       <c r="C632" s="2" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="D632" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E632" s="7" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="633" ht="17.25" spans="2:5">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="633" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B633" s="9">
         <v>20017</v>
       </c>
       <c r="C633" s="2" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="D633" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E633" s="7" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="634" ht="17.25" spans="2:5">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="634" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B634" s="9">
         <v>20018</v>
       </c>
       <c r="C634" s="2" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="D634" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E634" s="7" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="635" ht="17.25" spans="2:5">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="635" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B635" s="9">
         <v>20019</v>
       </c>
       <c r="C635" s="2" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="D635" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E635" s="7" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="636" ht="17.25" spans="2:5">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="636" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B636" s="9">
         <v>20020</v>
       </c>
       <c r="C636" s="2" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="D636" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E636" s="7" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="637" ht="17.25" spans="2:5">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="637" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B637" s="9">
         <v>20021</v>
       </c>
       <c r="C637" s="2" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="D637" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E637" s="7" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="638" ht="17.25" spans="2:5">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="638" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B638" s="9">
         <v>20022</v>
       </c>
       <c r="C638" s="2" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="D638" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E638" s="7" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="639" ht="17.25" spans="2:5">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="639" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B639" s="9">
         <v>20023</v>
       </c>
       <c r="C639" s="2" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="D639" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E639" s="7" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="640" ht="17.25" spans="2:5">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="640" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B640" s="9">
         <v>20024</v>
       </c>
       <c r="C640" s="2" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="D640" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E640" s="7" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="641" ht="17.25" spans="2:5">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="641" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B641" s="9">
         <v>20025</v>
       </c>
       <c r="C641" s="2" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="D641" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E641" s="7" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="642" ht="17.25" spans="2:5">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="642" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B642" s="9">
         <v>20026</v>
       </c>
       <c r="C642" s="2" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E642" s="7" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="643" ht="17.25" spans="2:5">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="643" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B643" s="9">
         <v>20027</v>
       </c>
       <c r="C643" s="2" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="D643" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E643" s="7" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="644" ht="17.25" spans="2:5">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="644" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B644" s="9">
         <v>20028</v>
       </c>
       <c r="C644" s="2" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="D644" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E644" s="7" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="645" ht="17.25" spans="2:5">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="645" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B645" s="9">
         <v>20029</v>
       </c>
       <c r="C645" s="2" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="D645" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E645" s="7" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="646" ht="17.25" spans="2:5">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="646" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B646" s="9">
         <v>20030</v>
       </c>
       <c r="C646" s="2" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="D646" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E646" s="7" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="647" ht="17.25" spans="2:5">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="647" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B647" s="9">
         <v>20031</v>
       </c>
       <c r="C647" s="2" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="D647" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E647" s="7" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="648" ht="17.25" spans="2:5">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="648" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B648" s="9">
         <v>20032</v>
       </c>
       <c r="C648" s="2" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E648" s="7" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="649" ht="17.25" spans="2:5">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="649" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B649" s="9">
         <v>20020033</v>
       </c>
       <c r="C649" s="2" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E649" s="7" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>